--- a/0_Data/9_Supplementary Information/Education.Codes.All.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1193">
-  <si>
-    <t xml:space="preserve">Country</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1202">
+  <si>
+    <t xml:space="preserve">Country_long</t>
   </si>
   <si>
     <t xml:space="preserve">edu_hhh</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">City and Guilds</t>
   </si>
   <si>
-    <t xml:space="preserve">GCE A’ CAPE</t>
+    <t xml:space="preserve">GCE ‘A’/CAPE</t>
   </si>
   <si>
     <t xml:space="preserve">Diploma or Equivalent Certificate of Achievement</t>
@@ -1947,6 +1947,33 @@
   </si>
   <si>
     <t xml:space="preserve">99. DON'T KNOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Childhood Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Secondary Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Secondary Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-secondary non-tertiary Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short cycle tertiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor or equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master or equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not specified</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
@@ -4390,9 +4417,7 @@
       <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="D39" t="n">
-        <v>9</v>
-      </c>
+      <c r="D39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -4404,9 +4429,7 @@
       <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
+      <c r="D40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -4418,9 +4441,7 @@
       <c r="C41" t="s">
         <v>68</v>
       </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
+      <c r="D41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -4432,9 +4453,7 @@
       <c r="C42" t="s">
         <v>69</v>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
+      <c r="D42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -4446,9 +4465,7 @@
       <c r="C43" t="s">
         <v>70</v>
       </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
+      <c r="D43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -4460,9 +4477,7 @@
       <c r="C44" t="s">
         <v>71</v>
       </c>
-      <c r="D44" t="n">
-        <v>3</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -4474,9 +4489,7 @@
       <c r="C45" t="s">
         <v>72</v>
       </c>
-      <c r="D45" t="n">
-        <v>3</v>
-      </c>
+      <c r="D45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -4488,9 +4501,7 @@
       <c r="C46" t="s">
         <v>73</v>
       </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
+      <c r="D46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -4502,9 +4513,7 @@
       <c r="C47" t="s">
         <v>74</v>
       </c>
-      <c r="D47" t="n">
-        <v>6</v>
-      </c>
+      <c r="D47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -4516,9 +4525,7 @@
       <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
+      <c r="D48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -4530,9 +4537,7 @@
       <c r="C49" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
+      <c r="D49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -4544,9 +4549,7 @@
       <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="D50" t="n">
-        <v>7</v>
-      </c>
+      <c r="D50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -4558,9 +4561,7 @@
       <c r="C51" t="s">
         <v>78</v>
       </c>
-      <c r="D51" t="n">
-        <v>7</v>
-      </c>
+      <c r="D51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -4572,9 +4573,7 @@
       <c r="C52" t="s">
         <v>79</v>
       </c>
-      <c r="D52" t="n">
-        <v>8</v>
-      </c>
+      <c r="D52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4586,9 +4585,7 @@
       <c r="C53" t="s">
         <v>80</v>
       </c>
-      <c r="D53" t="n">
-        <v>9</v>
-      </c>
+      <c r="D53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -9558,7 +9555,7 @@
         <v>34</v>
       </c>
       <c r="C426" t="s">
-        <v>67</v>
+        <v>646</v>
       </c>
       <c r="D426"/>
     </row>
@@ -9570,7 +9567,7 @@
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>646</v>
+        <v>211</v>
       </c>
       <c r="D427"/>
     </row>
@@ -9651,7 +9648,7 @@
         <v>645</v>
       </c>
       <c r="B434" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C434" t="s">
         <v>653</v>
@@ -9662,240 +9659,220 @@
       <c r="A435" t="s">
         <v>645</v>
       </c>
-      <c r="B435" t="s">
-        <v>31</v>
-      </c>
-      <c r="C435" t="s">
-        <v>76</v>
-      </c>
+      <c r="B435"/>
+      <c r="C435"/>
       <c r="D435"/>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B436" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C436" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D436"/>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B437" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D437"/>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B438" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D438"/>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B439" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>525</v>
-      </c>
-      <c r="D439" t="n">
-        <v>0</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D439"/>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B440" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C440" t="s">
-        <v>657</v>
-      </c>
-      <c r="D440" t="n">
-        <v>0</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="D440"/>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B441" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C441" t="s">
-        <v>533</v>
-      </c>
-      <c r="D441" t="n">
-        <v>1</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D441"/>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B442" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C442" t="s">
-        <v>658</v>
-      </c>
-      <c r="D442" t="n">
-        <v>2</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D442"/>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B443" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C443" t="s">
-        <v>659</v>
-      </c>
-      <c r="D443" t="n">
-        <v>3</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="D443"/>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B444" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C444" t="s">
-        <v>522</v>
-      </c>
-      <c r="D444" t="n">
-        <v>6</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="D444"/>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B445" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C445" t="s">
-        <v>660</v>
-      </c>
-      <c r="D445" t="n">
-        <v>7</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D445"/>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B446" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C446" t="s">
-        <v>661</v>
-      </c>
-      <c r="D446" t="n">
-        <v>8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D446"/>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B447" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C447" t="s">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="D447"/>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B448" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C448" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D448"/>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B449" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C449" t="s">
-        <v>664</v>
+        <v>525</v>
       </c>
       <c r="D449"/>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B450" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D450"/>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B451" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C451" t="s">
-        <v>666</v>
+        <v>533</v>
       </c>
       <c r="D451"/>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B452" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C452" t="s">
-        <v>90</v>
+        <v>667</v>
       </c>
       <c r="D452"/>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B453" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C453" t="s">
         <v>668</v>
@@ -9904,450 +9881,454 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B454" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C454" t="s">
-        <v>669</v>
+        <v>522</v>
       </c>
       <c r="D454"/>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B455" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C455" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D455"/>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B456" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C456" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D456"/>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B457" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C457" t="s">
-        <v>672</v>
+        <v>518</v>
       </c>
       <c r="D457"/>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B458" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C458" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D458"/>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B459" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C459" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D459"/>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B460" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C460" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D460"/>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B461" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C461" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D461"/>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B462" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C462" t="s">
-        <v>677</v>
+        <v>90</v>
       </c>
       <c r="D462"/>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B463" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C463" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D463"/>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B464" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D464"/>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B465" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C465" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
+        <v>676</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466" t="s">
         <v>680</v>
-      </c>
-      <c r="B466" t="s">
-        <v>7</v>
-      </c>
-      <c r="C466" t="s">
-        <v>682</v>
       </c>
       <c r="D466"/>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B467" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C467" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D467"/>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B468" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D468"/>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B469" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C469" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D469"/>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B470" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C470" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D470"/>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B471" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C471" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D471"/>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B472" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C472" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D472"/>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B473" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C473" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B474" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C474" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D474"/>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B475" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C475" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D475"/>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B476" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C476" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D476"/>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B477" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D477"/>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B478" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C478" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D478"/>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B479" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C479" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D479"/>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B480" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D480"/>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B481" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C481" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D481"/>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B482" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C482" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B483" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C483" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D483"/>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B484" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C484" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D484"/>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>680</v>
-      </c>
-      <c r="B485"/>
-      <c r="C485"/>
+        <v>689</v>
+      </c>
+      <c r="B485" t="s">
+        <v>47</v>
+      </c>
+      <c r="C485" t="s">
+        <v>700</v>
+      </c>
       <c r="D485"/>
     </row>
     <row r="486">
       <c r="A486" t="s">
+        <v>689</v>
+      </c>
+      <c r="B486" t="s">
+        <v>49</v>
+      </c>
+      <c r="C486" t="s">
         <v>701</v>
-      </c>
-      <c r="B486" t="s">
-        <v>5</v>
-      </c>
-      <c r="C486" t="s">
-        <v>702</v>
       </c>
       <c r="D486"/>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B487" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C487" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D487"/>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B488" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C488" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D488"/>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B489" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C489" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D489"/>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B490" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C490" t="s">
-        <v>58</v>
+        <v>705</v>
       </c>
       <c r="D490"/>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B491" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C491" t="s">
         <v>706</v>
@@ -10356,10 +10337,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B492" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C492" t="s">
         <v>707</v>
@@ -10368,10 +10349,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B493" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C493" t="s">
         <v>708</v>
@@ -10380,10 +10361,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B494" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="C494" t="s">
         <v>709</v>
@@ -10392,22 +10373,18 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>701</v>
-      </c>
-      <c r="B495" t="s">
-        <v>45</v>
-      </c>
-      <c r="C495" t="s">
-        <v>710</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="B495"/>
+      <c r="C495"/>
       <c r="D495"/>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B496" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C496" t="s">
         <v>711</v>
@@ -10416,10 +10393,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B497" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C497" t="s">
         <v>712</v>
@@ -10428,10 +10405,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B498" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C498" t="s">
         <v>713</v>
@@ -10440,34 +10417,34 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B499" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C499" t="s">
-        <v>80</v>
+        <v>714</v>
       </c>
       <c r="D499"/>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B500" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C500" t="s">
-        <v>714</v>
+        <v>58</v>
       </c>
       <c r="D500"/>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B501" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C501" t="s">
         <v>715</v>
@@ -10476,10 +10453,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B502" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C502" t="s">
         <v>716</v>
@@ -10488,34 +10465,34 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
+        <v>710</v>
+      </c>
+      <c r="B503" t="s">
+        <v>29</v>
+      </c>
+      <c r="C503" t="s">
         <v>717</v>
-      </c>
-      <c r="B503" t="s">
-        <v>5</v>
-      </c>
-      <c r="C503" t="s">
-        <v>718</v>
       </c>
       <c r="D503"/>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B504" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C504" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D504"/>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B505" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C505" t="s">
         <v>719</v>
@@ -10524,10 +10501,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B506" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C506" t="s">
         <v>720</v>
@@ -10536,10 +10513,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B507" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C507" t="s">
         <v>721</v>
@@ -10548,10 +10525,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B508" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C508" t="s">
         <v>722</v>
@@ -10560,22 +10537,22 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B509" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C509" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B510" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C510" t="s">
         <v>723</v>
@@ -10584,22 +10561,22 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B511" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C511" t="s">
-        <v>220</v>
+        <v>724</v>
       </c>
       <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B512" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C512" t="s">
         <v>725</v>
@@ -10608,414 +10585,418 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B513" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C513" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B514" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C514" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B515" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C515" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B516" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C516" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B517" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C517" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B518" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C518" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B519" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C519" t="s">
-        <v>731</v>
+        <v>218</v>
       </c>
       <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B520" t="s">
-        <v>640</v>
+        <v>29</v>
       </c>
       <c r="C520" t="s">
-        <v>80</v>
+        <v>732</v>
       </c>
       <c r="D520"/>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B521" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C521" t="s">
-        <v>733</v>
+        <v>220</v>
       </c>
       <c r="D521"/>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B522" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B523" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C523" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B524" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C524" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="D524"/>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B525" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C525" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="D525"/>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B526" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C526" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="D526"/>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B527" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C527" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="D527"/>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B528" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C528" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D528"/>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B529" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C529" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D529"/>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B530" t="s">
-        <v>63</v>
+        <v>640</v>
       </c>
       <c r="C530" t="s">
-        <v>734</v>
+        <v>80</v>
       </c>
       <c r="D530"/>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B531" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C531" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B532" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C532" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D532"/>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B533" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C533" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D533"/>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B534" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C534" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D534"/>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B535" t="s">
-        <v>451</v>
+        <v>53</v>
       </c>
       <c r="C535" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B536" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C536" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B537" t="s">
-        <v>455</v>
+        <v>57</v>
       </c>
       <c r="C537" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D537"/>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B538" t="s">
-        <v>623</v>
+        <v>59</v>
       </c>
       <c r="C538" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D538"/>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B539" t="s">
-        <v>625</v>
+        <v>61</v>
       </c>
       <c r="C539" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D539"/>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>732</v>
-      </c>
-      <c r="B540"/>
-      <c r="C540"/>
+        <v>741</v>
+      </c>
+      <c r="B540" t="s">
+        <v>63</v>
+      </c>
+      <c r="C540" t="s">
+        <v>743</v>
+      </c>
       <c r="D540"/>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B541" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C541" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D541"/>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B542" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C542" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D542"/>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B543" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C543" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D543"/>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B544" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C544" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D544"/>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B545" t="s">
-        <v>13</v>
+        <v>451</v>
       </c>
       <c r="C545" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B546" t="s">
-        <v>15</v>
+        <v>453</v>
       </c>
       <c r="C546" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B547" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="C547" t="s">
         <v>745</v>
@@ -11024,38 +11005,34 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B548" t="s">
-        <v>29</v>
+        <v>623</v>
       </c>
       <c r="C548" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B549" t="s">
-        <v>31</v>
+        <v>625</v>
       </c>
       <c r="C549" t="s">
-        <v>218</v>
+        <v>746</v>
       </c>
       <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>747</v>
-      </c>
-      <c r="B550" t="s">
-        <v>34</v>
-      </c>
-      <c r="C550" t="s">
-        <v>748</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="B550"/>
+      <c r="C550"/>
       <c r="D550"/>
     </row>
     <row r="551">
@@ -11066,7 +11043,7 @@
         <v>5</v>
       </c>
       <c r="C551" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D551"/>
     </row>
@@ -11078,7 +11055,7 @@
         <v>7</v>
       </c>
       <c r="C552" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D552"/>
     </row>
@@ -11090,7 +11067,7 @@
         <v>9</v>
       </c>
       <c r="C553" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D553"/>
     </row>
@@ -11102,7 +11079,7 @@
         <v>11</v>
       </c>
       <c r="C554" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D554"/>
     </row>
@@ -11114,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="C555" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D555"/>
     </row>
@@ -11126,7 +11103,7 @@
         <v>15</v>
       </c>
       <c r="C556" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="D556"/>
     </row>
@@ -11138,7 +11115,7 @@
         <v>17</v>
       </c>
       <c r="C557" t="s">
-        <v>704</v>
+        <v>754</v>
       </c>
       <c r="D557"/>
     </row>
@@ -11146,42 +11123,44 @@
       <c r="A558" t="s">
         <v>747</v>
       </c>
-      <c r="B558"/>
+      <c r="B558" t="s">
+        <v>29</v>
+      </c>
       <c r="C558" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B559" t="s">
-        <v>756</v>
+        <v>31</v>
       </c>
       <c r="C559" t="s">
-        <v>757</v>
+        <v>218</v>
       </c>
       <c r="D559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B560" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C560" t="s">
-        <v>82</v>
+        <v>757</v>
       </c>
       <c r="D560"/>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B561" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C561" t="s">
         <v>758</v>
@@ -11190,10 +11169,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B562" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C562" t="s">
         <v>759</v>
@@ -11202,10 +11181,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B563" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C563" t="s">
         <v>760</v>
@@ -11214,10 +11193,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B564" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C564" t="s">
         <v>761</v>
@@ -11226,10 +11205,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B565" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C565" t="s">
         <v>762</v>
@@ -11238,332 +11217,330 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B566" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C566" t="s">
-        <v>90</v>
+        <v>663</v>
       </c>
       <c r="D566"/>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B567" t="s">
-        <v>764</v>
+        <v>17</v>
       </c>
       <c r="C567" t="s">
-        <v>733</v>
-      </c>
-      <c r="D567" t="n">
-        <v>0</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="D567"/>
     </row>
     <row r="568">
       <c r="A568" t="s">
+        <v>756</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568" t="s">
         <v>763</v>
       </c>
-      <c r="B568" t="s">
-        <v>765</v>
-      </c>
-      <c r="C568" t="s">
-        <v>766</v>
-      </c>
-      <c r="D568" t="n">
-        <v>0</v>
-      </c>
+      <c r="D568"/>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B569" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C569" t="s">
-        <v>768</v>
-      </c>
-      <c r="D569" t="n">
-        <v>0</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="D569"/>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B570" t="s">
-        <v>769</v>
+        <v>5</v>
       </c>
       <c r="C570" t="s">
-        <v>713</v>
-      </c>
-      <c r="D570" t="n">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D570"/>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B571" t="s">
-        <v>770</v>
+        <v>7</v>
       </c>
       <c r="C571" t="s">
-        <v>771</v>
-      </c>
-      <c r="D571" t="n">
-        <v>1</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="D571"/>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B572" t="s">
-        <v>772</v>
+        <v>9</v>
       </c>
       <c r="C572" t="s">
-        <v>727</v>
-      </c>
-      <c r="D572" t="n">
-        <v>2</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="D572"/>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B573" t="s">
-        <v>773</v>
+        <v>13</v>
       </c>
       <c r="C573" t="s">
-        <v>774</v>
-      </c>
-      <c r="D573" t="n">
-        <v>2</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="D573"/>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B574" t="s">
-        <v>775</v>
+        <v>15</v>
       </c>
       <c r="C574" t="s">
-        <v>776</v>
-      </c>
-      <c r="D574" t="n">
-        <v>3</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="D574"/>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B575" t="s">
-        <v>777</v>
+        <v>29</v>
       </c>
       <c r="C575" t="s">
-        <v>778</v>
-      </c>
-      <c r="D575" t="n">
-        <v>5</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="D575"/>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B576" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C576" t="s">
-        <v>215</v>
-      </c>
-      <c r="D576" t="n">
-        <v>6</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D576"/>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B577" t="s">
-        <v>47</v>
+        <v>773</v>
       </c>
       <c r="C577" t="s">
-        <v>779</v>
+        <v>742</v>
       </c>
       <c r="D577" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B578" t="s">
-        <v>34</v>
+        <v>774</v>
       </c>
       <c r="C578" t="s">
-        <v>781</v>
-      </c>
-      <c r="D578"/>
+        <v>775</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B579" t="s">
-        <v>5</v>
+        <v>776</v>
       </c>
       <c r="C579" t="s">
-        <v>782</v>
-      </c>
-      <c r="D579"/>
+        <v>777</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B580" t="s">
-        <v>7</v>
+        <v>778</v>
       </c>
       <c r="C580" t="s">
-        <v>83</v>
-      </c>
-      <c r="D580"/>
+        <v>722</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
+        <v>772</v>
+      </c>
+      <c r="B581" t="s">
+        <v>779</v>
+      </c>
+      <c r="C581" t="s">
         <v>780</v>
       </c>
-      <c r="B581" t="s">
-        <v>9</v>
-      </c>
-      <c r="C581" t="s">
-        <v>783</v>
-      </c>
-      <c r="D581"/>
+      <c r="D581" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B582" t="s">
-        <v>11</v>
+        <v>781</v>
       </c>
       <c r="C582" t="s">
-        <v>784</v>
-      </c>
-      <c r="D582"/>
+        <v>736</v>
+      </c>
+      <c r="D582" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B583" t="s">
-        <v>13</v>
+        <v>782</v>
       </c>
       <c r="C583" t="s">
-        <v>89</v>
-      </c>
-      <c r="D583"/>
+        <v>783</v>
+      </c>
+      <c r="D583" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B584" t="s">
-        <v>15</v>
+        <v>784</v>
       </c>
       <c r="C584" t="s">
         <v>785</v>
       </c>
-      <c r="D584"/>
+      <c r="D584" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
+        <v>772</v>
+      </c>
+      <c r="B585" t="s">
         <v>786</v>
       </c>
-      <c r="B585" t="s">
-        <v>34</v>
-      </c>
       <c r="C585" t="s">
-        <v>67</v>
-      </c>
-      <c r="D585"/>
+        <v>787</v>
+      </c>
+      <c r="D585" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="B586" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C586" t="s">
-        <v>787</v>
-      </c>
-      <c r="D586"/>
+        <v>215</v>
+      </c>
+      <c r="D586" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="B587" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C587" t="s">
         <v>788</v>
       </c>
-      <c r="D587"/>
+      <c r="D587" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B588" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C588" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B589" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C589" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D589"/>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B590" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C590" t="s">
-        <v>791</v>
+        <v>83</v>
       </c>
       <c r="D590"/>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B591" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C591" t="s">
         <v>792</v>
@@ -11572,10 +11549,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B592" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C592" t="s">
         <v>793</v>
@@ -11584,70 +11561,70 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B593" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C593" t="s">
-        <v>794</v>
+        <v>89</v>
       </c>
       <c r="D593"/>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B594" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C594" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B595" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C595" t="s">
-        <v>796</v>
+        <v>67</v>
       </c>
       <c r="D595"/>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B596" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C596" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D596"/>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B597" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C597" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
       <c r="D597"/>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B598" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C598" t="s">
         <v>798</v>
@@ -11656,10 +11633,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B599" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C599" t="s">
         <v>799</v>
@@ -11668,10 +11645,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B600" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C600" t="s">
         <v>800</v>
@@ -11680,1673 +11657,1633 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B601" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C601" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="D601"/>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B602" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C602" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D602"/>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B603" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C603" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D603"/>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B604" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C604" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B605" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C605" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D605"/>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B606" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C606" t="s">
-        <v>525</v>
-      </c>
-      <c r="D606" t="n">
-        <v>0</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="D606"/>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B607" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C607" t="s">
-        <v>806</v>
-      </c>
-      <c r="D607" t="n">
-        <v>0</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="D607"/>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B608" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C608" t="s">
         <v>807</v>
       </c>
-      <c r="D608" t="n">
-        <v>1</v>
-      </c>
+      <c r="D608"/>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B609" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C609" t="s">
-        <v>533</v>
-      </c>
-      <c r="D609" t="n">
-        <v>1</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="D609"/>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B610" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C610" t="s">
-        <v>534</v>
-      </c>
-      <c r="D610" t="n">
-        <v>2</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="D610"/>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B611" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C611" t="s">
-        <v>808</v>
-      </c>
-      <c r="D611" t="n">
-        <v>3</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="D611"/>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B612" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C612" t="s">
-        <v>809</v>
-      </c>
-      <c r="D612" t="n">
-        <v>4</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D612"/>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B613" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C613" t="s">
-        <v>810</v>
-      </c>
-      <c r="D613" t="n">
-        <v>5</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="D613"/>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B614" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C614" t="s">
-        <v>811</v>
-      </c>
-      <c r="D614" t="n">
-        <v>5</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="D614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B615" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="C615" t="s">
-        <v>522</v>
-      </c>
-      <c r="D615" t="n">
-        <v>6</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="D615"/>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B616" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C616" t="s">
-        <v>812</v>
-      </c>
-      <c r="D616" t="n">
-        <v>7</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D616"/>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B617" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C617" t="s">
-        <v>661</v>
-      </c>
-      <c r="D617" t="n">
-        <v>8</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="D617"/>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B618" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C618" t="s">
-        <v>813</v>
-      </c>
-      <c r="D618" t="n">
-        <v>5</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="D618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B619" t="s">
-        <v>642</v>
+        <v>9</v>
       </c>
       <c r="C619" t="s">
-        <v>814</v>
+        <v>533</v>
       </c>
       <c r="D619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B620" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C620" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B621" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C621" t="s">
-        <v>82</v>
+        <v>817</v>
       </c>
       <c r="D621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B622" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C622" t="s">
-        <v>83</v>
+        <v>818</v>
       </c>
       <c r="D622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B623" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C623" t="s">
-        <v>512</v>
+        <v>819</v>
       </c>
       <c r="D623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B624" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C624" t="s">
-        <v>513</v>
+        <v>820</v>
       </c>
       <c r="D624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B625" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C625" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B626" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C626" t="s">
-        <v>515</v>
+        <v>821</v>
       </c>
       <c r="D626"/>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B627" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C627" t="s">
-        <v>516</v>
+        <v>670</v>
       </c>
       <c r="D627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B628" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C628" t="s">
-        <v>89</v>
+        <v>822</v>
       </c>
       <c r="D628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B629" t="s">
-        <v>34</v>
+        <v>642</v>
       </c>
       <c r="C629" t="s">
-        <v>90</v>
+        <v>823</v>
       </c>
       <c r="D629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B630" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C630" t="s">
-        <v>817</v>
+        <v>510</v>
       </c>
       <c r="D630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B631" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C631" t="s">
-        <v>818</v>
+        <v>82</v>
       </c>
       <c r="D631"/>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B632" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C632" t="s">
-        <v>819</v>
+        <v>83</v>
       </c>
       <c r="D632"/>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B633" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C633" t="s">
-        <v>820</v>
+        <v>512</v>
       </c>
       <c r="D633"/>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B634" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C634" t="s">
-        <v>821</v>
+        <v>513</v>
       </c>
       <c r="D634"/>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B635" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C635" t="s">
-        <v>822</v>
+        <v>514</v>
       </c>
       <c r="D635"/>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B636" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C636" t="s">
-        <v>823</v>
+        <v>515</v>
       </c>
       <c r="D636"/>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B637" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C637" t="s">
-        <v>824</v>
+        <v>516</v>
       </c>
       <c r="D637"/>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B638" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C638" t="s">
-        <v>825</v>
+        <v>89</v>
       </c>
       <c r="D638"/>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B639" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C639" t="s">
-        <v>826</v>
+        <v>90</v>
       </c>
       <c r="D639"/>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B640" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C640" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D640"/>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B641" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D641"/>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B642" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C642" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D642"/>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B643" t="s">
-        <v>31</v>
-      </c>
-      <c r="C643"/>
+        <v>13</v>
+      </c>
+      <c r="C643" t="s">
+        <v>829</v>
+      </c>
       <c r="D643"/>
     </row>
     <row r="644">
       <c r="A644" t="s">
+        <v>825</v>
+      </c>
+      <c r="B644" t="s">
+        <v>15</v>
+      </c>
+      <c r="C644" t="s">
         <v>830</v>
       </c>
-      <c r="B644" t="s">
-        <v>63</v>
-      </c>
-      <c r="C644"/>
       <c r="D644"/>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B645" t="s">
-        <v>200</v>
-      </c>
-      <c r="C645"/>
+        <v>17</v>
+      </c>
+      <c r="C645" t="s">
+        <v>831</v>
+      </c>
       <c r="D645"/>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B646" t="s">
-        <v>457</v>
-      </c>
-      <c r="C646"/>
+        <v>29</v>
+      </c>
+      <c r="C646" t="s">
+        <v>832</v>
+      </c>
       <c r="D646"/>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B647" t="s">
-        <v>161</v>
-      </c>
-      <c r="C647"/>
+        <v>31</v>
+      </c>
+      <c r="C647" t="s">
+        <v>833</v>
+      </c>
       <c r="D647"/>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B648" t="s">
-        <v>101</v>
-      </c>
-      <c r="C648"/>
+        <v>47</v>
+      </c>
+      <c r="C648" t="s">
+        <v>834</v>
+      </c>
       <c r="D648"/>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B649" t="s">
-        <v>103</v>
-      </c>
-      <c r="C649"/>
+        <v>49</v>
+      </c>
+      <c r="C649" t="s">
+        <v>835</v>
+      </c>
       <c r="D649"/>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B650" t="s">
-        <v>463</v>
-      </c>
-      <c r="C650"/>
+        <v>51</v>
+      </c>
+      <c r="C650" t="s">
+        <v>836</v>
+      </c>
       <c r="D650"/>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B651" t="s">
-        <v>465</v>
-      </c>
-      <c r="C651"/>
+        <v>105</v>
+      </c>
+      <c r="C651" t="s">
+        <v>837</v>
+      </c>
       <c r="D651"/>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B652" t="s">
-        <v>467</v>
-      </c>
-      <c r="C652"/>
+        <v>107</v>
+      </c>
+      <c r="C652" t="s">
+        <v>838</v>
+      </c>
       <c r="D652"/>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B653" t="s">
-        <v>469</v>
+        <v>31</v>
       </c>
       <c r="C653"/>
       <c r="D653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B654" t="s">
-        <v>831</v>
+        <v>63</v>
       </c>
       <c r="C654"/>
       <c r="D654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B655" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C655"/>
       <c r="D655"/>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B656" t="s">
-        <v>105</v>
+        <v>457</v>
       </c>
       <c r="C656"/>
       <c r="D656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B657" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C657"/>
       <c r="D657"/>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B658" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
       <c r="C658"/>
       <c r="D658"/>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B659" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="C659"/>
       <c r="D659"/>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B660" t="s">
-        <v>832</v>
+        <v>463</v>
       </c>
       <c r="C660"/>
       <c r="D660"/>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B661" t="s">
-        <v>833</v>
+        <v>465</v>
       </c>
       <c r="C661"/>
       <c r="D661"/>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B662" t="s">
-        <v>834</v>
+        <v>467</v>
       </c>
       <c r="C662"/>
       <c r="D662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B663" t="s">
-        <v>835</v>
+        <v>469</v>
       </c>
       <c r="C663"/>
       <c r="D663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B664" t="s">
-        <v>479</v>
+        <v>840</v>
       </c>
       <c r="C664"/>
       <c r="D664"/>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B665" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C665"/>
       <c r="D665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B666" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C666"/>
       <c r="D666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B667" t="s">
-        <v>485</v>
+        <v>107</v>
       </c>
       <c r="C667"/>
       <c r="D667"/>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B668" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C668"/>
       <c r="D668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B669" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C669"/>
       <c r="D669"/>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B670" t="s">
-        <v>493</v>
+        <v>841</v>
       </c>
       <c r="C670"/>
       <c r="D670"/>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B671" t="s">
-        <v>113</v>
+        <v>842</v>
       </c>
       <c r="C671"/>
       <c r="D671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B672" t="s">
-        <v>115</v>
+        <v>843</v>
       </c>
       <c r="C672"/>
       <c r="D672"/>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B673" t="s">
-        <v>117</v>
+        <v>844</v>
       </c>
       <c r="C673"/>
       <c r="D673"/>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B674" t="s">
-        <v>119</v>
+        <v>479</v>
       </c>
       <c r="C674"/>
       <c r="D674"/>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B675" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C675"/>
       <c r="D675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B676" t="s">
-        <v>836</v>
+        <v>109</v>
       </c>
       <c r="C676"/>
       <c r="D676"/>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B677" t="s">
-        <v>837</v>
+        <v>485</v>
       </c>
       <c r="C677"/>
       <c r="D677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B678" t="s">
-        <v>838</v>
+        <v>487</v>
       </c>
       <c r="C678"/>
       <c r="D678"/>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B679" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C679"/>
       <c r="D679"/>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B680" t="s">
-        <v>123</v>
+        <v>493</v>
       </c>
       <c r="C680"/>
       <c r="D680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B681" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C681"/>
       <c r="D681"/>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B682" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C682"/>
       <c r="D682"/>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B683" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C683"/>
       <c r="D683"/>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B684" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C684"/>
       <c r="D684"/>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B685" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C685"/>
       <c r="D685"/>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B686" t="s">
-        <v>135</v>
+        <v>845</v>
       </c>
       <c r="C686"/>
       <c r="D686"/>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B687" t="s">
-        <v>137</v>
+        <v>846</v>
       </c>
       <c r="C687"/>
       <c r="D687"/>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B688" t="s">
-        <v>143</v>
+        <v>847</v>
       </c>
       <c r="C688"/>
       <c r="D688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B689" t="s">
-        <v>839</v>
+        <v>502</v>
       </c>
       <c r="C689"/>
       <c r="D689"/>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B690" t="s">
-        <v>840</v>
+        <v>123</v>
       </c>
       <c r="C690"/>
       <c r="D690"/>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B691" t="s">
-        <v>841</v>
+        <v>125</v>
       </c>
       <c r="C691"/>
       <c r="D691"/>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B692" t="s">
-        <v>842</v>
+        <v>127</v>
       </c>
       <c r="C692"/>
       <c r="D692"/>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B693" t="s">
-        <v>843</v>
+        <v>129</v>
       </c>
       <c r="C693"/>
       <c r="D693"/>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B694" t="s">
-        <v>844</v>
+        <v>131</v>
       </c>
       <c r="C694"/>
       <c r="D694"/>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B695" t="s">
-        <v>845</v>
+        <v>133</v>
       </c>
       <c r="C695"/>
       <c r="D695"/>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B696" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C696"/>
       <c r="D696"/>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>830</v>
-      </c>
-      <c r="B697"/>
+        <v>839</v>
+      </c>
+      <c r="B697" t="s">
+        <v>137</v>
+      </c>
       <c r="C697"/>
       <c r="D697"/>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B698" t="s">
-        <v>34</v>
-      </c>
-      <c r="C698" t="s">
-        <v>847</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C698"/>
       <c r="D698"/>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B699" t="s">
-        <v>5</v>
-      </c>
-      <c r="C699" t="s">
         <v>848</v>
       </c>
+      <c r="C699"/>
       <c r="D699"/>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B700" t="s">
-        <v>7</v>
-      </c>
-      <c r="C700" t="s">
         <v>849</v>
       </c>
+      <c r="C700"/>
       <c r="D700"/>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B701" t="s">
-        <v>9</v>
-      </c>
-      <c r="C701" t="s">
         <v>850</v>
       </c>
+      <c r="C701"/>
       <c r="D701"/>
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B702" t="s">
-        <v>11</v>
-      </c>
-      <c r="C702" t="s">
         <v>851</v>
       </c>
+      <c r="C702"/>
       <c r="D702"/>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B703" t="s">
-        <v>13</v>
-      </c>
-      <c r="C703" t="s">
         <v>852</v>
       </c>
+      <c r="C703"/>
       <c r="D703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B704" t="s">
-        <v>15</v>
-      </c>
-      <c r="C704" t="s">
         <v>853</v>
       </c>
+      <c r="C704"/>
       <c r="D704"/>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B705" t="s">
-        <v>17</v>
-      </c>
-      <c r="C705" t="s">
         <v>854</v>
       </c>
+      <c r="C705"/>
       <c r="D705"/>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B706" t="s">
-        <v>29</v>
-      </c>
-      <c r="C706" t="s">
-        <v>855</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C706"/>
       <c r="D706"/>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>846</v>
-      </c>
-      <c r="B707" t="s">
-        <v>31</v>
-      </c>
-      <c r="C707" t="s">
-        <v>856</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="B707"/>
+      <c r="C707"/>
       <c r="D707"/>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B708" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C708" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D708"/>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B709" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C709" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D709"/>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B710" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C710" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D710"/>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B711" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C711" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B712" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C712" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B713" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C713" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B714" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C714" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B715" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C715" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B716" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C716" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D716"/>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B717" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C717" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B718" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C718" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B719" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C719" t="s">
-        <v>869</v>
-      </c>
-      <c r="D719" t="n">
-        <v>0</v>
-      </c>
+        <v>867</v>
+      </c>
+      <c r="D719"/>
     </row>
     <row r="720">
       <c r="A720" t="s">
+        <v>855</v>
+      </c>
+      <c r="B720" t="s">
+        <v>49</v>
+      </c>
+      <c r="C720" t="s">
         <v>868</v>
       </c>
-      <c r="B720" t="s">
-        <v>9</v>
-      </c>
-      <c r="C720" t="s">
-        <v>870</v>
-      </c>
-      <c r="D720" t="n">
-        <v>1</v>
-      </c>
+      <c r="D720"/>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B721" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C721" t="s">
-        <v>871</v>
-      </c>
-      <c r="D721" t="n">
-        <v>1</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="D721"/>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B722" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C722" t="s">
-        <v>872</v>
-      </c>
-      <c r="D722" t="n">
-        <v>1</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="D722"/>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B723" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C723" t="s">
-        <v>873</v>
-      </c>
-      <c r="D723" t="n">
-        <v>2</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="D723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B724" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C724" t="s">
-        <v>874</v>
-      </c>
-      <c r="D724" t="n">
-        <v>3</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="D724"/>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B725" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C725" t="s">
-        <v>875</v>
-      </c>
-      <c r="D725" t="n">
-        <v>3</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="D725"/>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B726" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C726" t="s">
-        <v>876</v>
-      </c>
-      <c r="D726" t="n">
-        <v>3</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="D726"/>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B727" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C727" t="s">
-        <v>877</v>
-      </c>
-      <c r="D727" t="n">
-        <v>3</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="D727"/>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B728" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="C728" t="s">
-        <v>878</v>
-      </c>
-      <c r="D728" t="n">
-        <v>3</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="D728"/>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B729" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C729" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B730" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C730" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B731" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C731" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B732" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C732" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B733" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C733" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D733" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B734" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C734" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D734" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B735" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="C735" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D735" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B736" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C736" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D736" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B737" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C737" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D737" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B738" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C738" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D738" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B739" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C739" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D739" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>868</v>
-      </c>
-      <c r="B740"/>
-      <c r="C740"/>
-      <c r="D740"/>
+        <v>877</v>
+      </c>
+      <c r="B740" t="s">
+        <v>51</v>
+      </c>
+      <c r="C740" t="s">
+        <v>889</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
+        <v>877</v>
+      </c>
+      <c r="B741" t="s">
+        <v>53</v>
+      </c>
+      <c r="C741" t="s">
         <v>890</v>
       </c>
-      <c r="B741" t="s">
-        <v>5</v>
-      </c>
-      <c r="C741" t="s">
-        <v>891</v>
-      </c>
       <c r="D741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B742" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C742" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B743" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C743" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D743" t="n">
         <v>1</v>
@@ -13354,1828 +13291,1842 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B744" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C744" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D744" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B745" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="C745" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D745" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B746" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C746" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D746" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B747" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C747" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D747" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B748" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C748" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D748" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B749" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C749" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D749" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>890</v>
-      </c>
-      <c r="B750" t="s">
-        <v>45</v>
-      </c>
-      <c r="C750" t="s">
-        <v>900</v>
-      </c>
-      <c r="D750" t="n">
-        <v>7</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="B750"/>
+      <c r="C750"/>
+      <c r="D750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="B751" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C751" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D751" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="B752" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C752" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B753" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C753" t="s">
-        <v>904</v>
-      </c>
-      <c r="D753"/>
+        <v>902</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
+        <v>899</v>
+      </c>
+      <c r="B754" t="s">
+        <v>11</v>
+      </c>
+      <c r="C754" t="s">
         <v>903</v>
       </c>
-      <c r="B754" t="s">
-        <v>45</v>
-      </c>
-      <c r="C754" t="s">
-        <v>766</v>
-      </c>
-      <c r="D754"/>
+      <c r="D754" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B755" t="s">
-        <v>905</v>
+        <v>13</v>
       </c>
       <c r="C755" t="s">
-        <v>787</v>
-      </c>
-      <c r="D755"/>
+        <v>904</v>
+      </c>
+      <c r="D755" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B756" t="s">
-        <v>906</v>
+        <v>15</v>
       </c>
       <c r="C756" t="s">
-        <v>788</v>
-      </c>
-      <c r="D756"/>
+        <v>905</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B757" t="s">
-        <v>907</v>
+        <v>17</v>
       </c>
       <c r="C757" t="s">
-        <v>789</v>
-      </c>
-      <c r="D757"/>
+        <v>906</v>
+      </c>
+      <c r="D757" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B758" t="s">
-        <v>908</v>
+        <v>29</v>
       </c>
       <c r="C758" t="s">
-        <v>790</v>
-      </c>
-      <c r="D758"/>
+        <v>907</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B759" t="s">
-        <v>909</v>
+        <v>31</v>
       </c>
       <c r="C759" t="s">
-        <v>791</v>
-      </c>
-      <c r="D759"/>
+        <v>908</v>
+      </c>
+      <c r="D759" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B760" t="s">
-        <v>910</v>
+        <v>45</v>
       </c>
       <c r="C760" t="s">
-        <v>792</v>
-      </c>
-      <c r="D760"/>
+        <v>909</v>
+      </c>
+      <c r="D760" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B761" t="s">
-        <v>911</v>
+        <v>47</v>
       </c>
       <c r="C761" t="s">
-        <v>912</v>
-      </c>
-      <c r="D761"/>
+        <v>910</v>
+      </c>
+      <c r="D761" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B762" t="s">
-        <v>913</v>
+        <v>49</v>
       </c>
       <c r="C762" t="s">
-        <v>914</v>
-      </c>
-      <c r="D762"/>
+        <v>911</v>
+      </c>
+      <c r="D762" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B763" t="s">
-        <v>915</v>
+        <v>34</v>
       </c>
       <c r="C763" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D763"/>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B764" t="s">
-        <v>917</v>
+        <v>45</v>
       </c>
       <c r="C764" t="s">
-        <v>918</v>
+        <v>775</v>
       </c>
       <c r="D764"/>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B765" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C765" t="s">
-        <v>920</v>
+        <v>796</v>
       </c>
       <c r="D765"/>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B766" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C766" t="s">
-        <v>922</v>
+        <v>797</v>
       </c>
       <c r="D766"/>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B767" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C767" t="s">
-        <v>924</v>
+        <v>798</v>
       </c>
       <c r="D767"/>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B768" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C768" t="s">
-        <v>926</v>
+        <v>799</v>
       </c>
       <c r="D768"/>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B769" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C769" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
       <c r="D769"/>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B770" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="C770" t="s">
-        <v>930</v>
+        <v>801</v>
       </c>
       <c r="D770"/>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B771" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C771" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D771"/>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B772" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="C772" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="D772"/>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B773" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C773" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="D773"/>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B774" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C774" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="D774"/>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B775" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="C775" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D775"/>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B776" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="C776" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="D776"/>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B777" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C777" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="D777"/>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B778" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C778" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D778"/>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B779" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="C779" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="D779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B780" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C780" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="D780"/>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B781" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="C781" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D781"/>
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B782" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="C782" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D782"/>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B783" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C783" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="D783"/>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B784" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="C784" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="D784"/>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B785" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C785" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D785"/>
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B786" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C786" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="D786"/>
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B787" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="C787" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="D787"/>
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B788" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C788" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="D788"/>
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B789" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="C789" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="D789"/>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B790" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="C790" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="D790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B791" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="C791" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="D791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B792" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C792" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="D792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B793" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C793" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="D793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B794" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="C794" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="D794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B795" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="C795" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="D795"/>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B796" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C796" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="D796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B797" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C797" t="s">
-        <v>936</v>
+        <v>973</v>
       </c>
       <c r="D797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B798" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="C798" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="D798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B799" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C799" t="s">
-        <v>944</v>
+        <v>977</v>
       </c>
       <c r="D799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B800" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="C800" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="D800"/>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B801" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C801" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="D801"/>
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B802" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C802" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="D802"/>
     </row>
     <row r="803">
       <c r="A803" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B803" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C803" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
       <c r="D803"/>
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B804" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C804" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D804"/>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B805" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C805" t="s">
-        <v>954</v>
+        <v>989</v>
       </c>
       <c r="D805"/>
     </row>
     <row r="806">
       <c r="A806" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B806" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C806" t="s">
-        <v>956</v>
+        <v>991</v>
       </c>
       <c r="D806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B807" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C807" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="D807"/>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B808" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C808" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D808"/>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B809" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C809" t="s">
-        <v>998</v>
+        <v>953</v>
       </c>
       <c r="D809"/>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B810" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C810" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D810"/>
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B811" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C811" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D811"/>
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B812" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C812" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D812"/>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B813" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C813" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D813"/>
     </row>
     <row r="814">
       <c r="A814" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B814" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C814" t="s">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="D814"/>
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B815" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C815" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="D815"/>
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B816" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C816" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D816"/>
     </row>
     <row r="817">
       <c r="A817" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B817" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C817" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="D817"/>
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B818" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C818" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="D818"/>
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B819" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C819" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="D819"/>
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B820" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C820" t="s">
-        <v>1010</v>
+        <v>971</v>
       </c>
       <c r="D820"/>
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B821" t="s">
-        <v>5</v>
+        <v>1009</v>
       </c>
       <c r="C821" t="s">
-        <v>725</v>
+        <v>973</v>
       </c>
       <c r="D821"/>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B822" t="s">
-        <v>45</v>
+        <v>1010</v>
       </c>
       <c r="C822" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="D822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
+        <v>912</v>
+      </c>
+      <c r="B823" t="s">
         <v>1011</v>
       </c>
-      <c r="B823" t="s">
-        <v>47</v>
-      </c>
       <c r="C823" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="D823"/>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B824" t="s">
-        <v>49</v>
+        <v>1012</v>
       </c>
       <c r="C824" t="s">
-        <v>1014</v>
+        <v>979</v>
       </c>
       <c r="D824"/>
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B825" t="s">
-        <v>51</v>
+        <v>1013</v>
       </c>
       <c r="C825" t="s">
-        <v>1015</v>
+        <v>981</v>
       </c>
       <c r="D825"/>
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B826" t="s">
-        <v>53</v>
+        <v>1014</v>
       </c>
       <c r="C826" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="D826"/>
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B827" t="s">
-        <v>55</v>
+        <v>1015</v>
       </c>
       <c r="C827" t="s">
-        <v>1017</v>
+        <v>985</v>
       </c>
       <c r="D827"/>
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B828" t="s">
-        <v>57</v>
+        <v>1016</v>
       </c>
       <c r="C828" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="D828"/>
     </row>
     <row r="829">
       <c r="A829" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B829" t="s">
-        <v>95</v>
+        <v>1017</v>
       </c>
       <c r="C829" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="D829"/>
     </row>
     <row r="830">
       <c r="A830" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="B830" t="s">
-        <v>97</v>
+        <v>1018</v>
       </c>
       <c r="C830" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D830"/>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B831" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C831" t="s">
-        <v>1021</v>
+        <v>734</v>
       </c>
       <c r="D831"/>
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B832" t="s">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="C832" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D832"/>
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B833" t="s">
-        <v>453</v>
+        <v>47</v>
       </c>
       <c r="C833" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D833"/>
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B834" t="s">
-        <v>455</v>
+        <v>49</v>
       </c>
       <c r="C834" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D834"/>
     </row>
     <row r="835">
       <c r="A835" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B835" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C835" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D835"/>
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B836" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C836" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D836"/>
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B837" t="s">
-        <v>461</v>
+        <v>55</v>
       </c>
       <c r="C837" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D837"/>
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B838" t="s">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="C838" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D838"/>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B839" t="s">
-        <v>465</v>
+        <v>95</v>
       </c>
       <c r="C839" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B840" t="s">
-        <v>467</v>
+        <v>97</v>
       </c>
       <c r="C840" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D840"/>
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B841" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C841" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D841"/>
     </row>
     <row r="842">
       <c r="A842" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B842" t="s">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="C842" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D842"/>
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B843" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="C843" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B844" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C844" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D844"/>
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B845" t="s">
-        <v>832</v>
+        <v>101</v>
       </c>
       <c r="C845" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D845"/>
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B846" t="s">
-        <v>833</v>
+        <v>103</v>
       </c>
       <c r="C846" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D846"/>
     </row>
     <row r="847">
       <c r="A847" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B847" t="s">
-        <v>834</v>
+        <v>461</v>
       </c>
       <c r="C847" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D847"/>
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="B848" t="s">
-        <v>642</v>
+        <v>463</v>
       </c>
       <c r="C848" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D848"/>
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B849" t="s">
-        <v>5</v>
+        <v>465</v>
       </c>
       <c r="C849" t="s">
-        <v>82</v>
+        <v>1038</v>
       </c>
       <c r="D849"/>
     </row>
     <row r="850">
       <c r="A850" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B850" t="s">
+        <v>467</v>
+      </c>
+      <c r="C850" t="s">
         <v>1039</v>
-      </c>
-      <c r="B850" t="s">
-        <v>7</v>
-      </c>
-      <c r="C850" t="s">
-        <v>83</v>
       </c>
       <c r="D850"/>
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B851" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C851" t="s">
-        <v>84</v>
+        <v>1040</v>
       </c>
       <c r="D851"/>
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B852" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C852" t="s">
-        <v>85</v>
+        <v>1041</v>
       </c>
       <c r="D852"/>
     </row>
     <row r="853">
       <c r="A853" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B853" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="C853" t="s">
-        <v>86</v>
+        <v>1042</v>
       </c>
       <c r="D853"/>
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B854" t="s">
-        <v>15</v>
+        <v>477</v>
       </c>
       <c r="C854" t="s">
-        <v>87</v>
+        <v>1043</v>
       </c>
       <c r="D854"/>
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B855" t="s">
-        <v>17</v>
+        <v>841</v>
       </c>
       <c r="C855" t="s">
-        <v>88</v>
+        <v>1044</v>
       </c>
       <c r="D855"/>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B856" t="s">
-        <v>29</v>
+        <v>842</v>
       </c>
       <c r="C856" t="s">
-        <v>89</v>
+        <v>1045</v>
       </c>
       <c r="D856"/>
     </row>
     <row r="857">
       <c r="A857" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="B857" t="s">
-        <v>34</v>
+        <v>843</v>
       </c>
       <c r="C857" t="s">
-        <v>90</v>
+        <v>1046</v>
       </c>
       <c r="D857"/>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="B858" t="s">
-        <v>5</v>
+        <v>642</v>
       </c>
       <c r="C858" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D858"/>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B859" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C859" t="s">
-        <v>787</v>
+        <v>82</v>
       </c>
       <c r="D859"/>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B860" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C860" t="s">
-        <v>788</v>
+        <v>83</v>
       </c>
       <c r="D860"/>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B861" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C861" t="s">
-        <v>789</v>
+        <v>84</v>
       </c>
       <c r="D861"/>
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B862" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C862" t="s">
-        <v>790</v>
+        <v>85</v>
       </c>
       <c r="D862"/>
     </row>
     <row r="863">
       <c r="A863" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B863" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C863" t="s">
-        <v>791</v>
+        <v>86</v>
       </c>
       <c r="D863"/>
     </row>
     <row r="864">
       <c r="A864" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B864" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C864" t="s">
-        <v>792</v>
+        <v>87</v>
       </c>
       <c r="D864"/>
     </row>
     <row r="865">
       <c r="A865" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B865" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C865" t="s">
-        <v>793</v>
+        <v>88</v>
       </c>
       <c r="D865"/>
     </row>
     <row r="866">
       <c r="A866" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B866" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C866" t="s">
-        <v>794</v>
+        <v>89</v>
       </c>
       <c r="D866"/>
     </row>
     <row r="867">
       <c r="A867" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B867" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C867" t="s">
-        <v>795</v>
+        <v>90</v>
       </c>
       <c r="D867"/>
     </row>
     <row r="868">
       <c r="A868" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B868" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C868" t="s">
-        <v>796</v>
+        <v>1050</v>
       </c>
       <c r="D868"/>
     </row>
     <row r="869">
       <c r="A869" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B869" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C869" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D869"/>
     </row>
     <row r="870">
       <c r="A870" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B870" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C870" t="s">
-        <v>1042</v>
+        <v>797</v>
       </c>
       <c r="D870"/>
     </row>
     <row r="871">
       <c r="A871" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B871" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C871" t="s">
-        <v>1043</v>
+        <v>798</v>
       </c>
       <c r="D871"/>
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B872" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C872" t="s">
-        <v>1044</v>
+        <v>799</v>
       </c>
       <c r="D872"/>
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B873" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C873" t="s">
-        <v>1045</v>
+        <v>800</v>
       </c>
       <c r="D873"/>
     </row>
     <row r="874">
       <c r="A874" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B874" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C874" t="s">
-        <v>1046</v>
+        <v>801</v>
       </c>
       <c r="D874"/>
     </row>
     <row r="875">
       <c r="A875" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B875" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C875" t="s">
-        <v>1047</v>
+        <v>802</v>
       </c>
       <c r="D875"/>
     </row>
     <row r="876">
       <c r="A876" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B876" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C876" t="s">
-        <v>1048</v>
+        <v>803</v>
       </c>
       <c r="D876"/>
     </row>
     <row r="877">
       <c r="A877" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B877" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C877" t="s">
-        <v>1049</v>
+        <v>804</v>
       </c>
       <c r="D877"/>
     </row>
     <row r="878">
       <c r="A878" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B878" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C878" t="s">
-        <v>1050</v>
+        <v>805</v>
       </c>
       <c r="D878"/>
     </row>
     <row r="879">
       <c r="A879" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B879" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C879" t="s">
-        <v>1051</v>
+        <v>806</v>
       </c>
       <c r="D879"/>
     </row>
     <row r="880">
       <c r="A880" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B880" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C880" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D880"/>
     </row>
     <row r="881">
       <c r="A881" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B881" t="s">
-        <v>451</v>
+        <v>53</v>
       </c>
       <c r="C881" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D881"/>
     </row>
     <row r="882">
       <c r="A882" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B882" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C882" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D882"/>
     </row>
     <row r="883">
       <c r="A883" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B883" t="s">
-        <v>455</v>
+        <v>57</v>
       </c>
       <c r="C883" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D883"/>
     </row>
     <row r="884">
       <c r="A884" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B884" t="s">
-        <v>623</v>
+        <v>59</v>
       </c>
       <c r="C884" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D884"/>
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B885" t="s">
-        <v>625</v>
+        <v>61</v>
       </c>
       <c r="C885" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D885"/>
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B886" t="s">
-        <v>457</v>
+        <v>63</v>
       </c>
       <c r="C886" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D886"/>
     </row>
     <row r="887">
       <c r="A887" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B887" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C887" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D887"/>
     </row>
     <row r="888">
       <c r="A888" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B888" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C888" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D888"/>
     </row>
     <row r="889">
       <c r="A889" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B889" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C889" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D889"/>
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B890" t="s">
-        <v>642</v>
+        <v>99</v>
       </c>
       <c r="C890" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D890"/>
     </row>
     <row r="891">
       <c r="A891" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B891" t="s">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="C891" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D891"/>
     </row>
     <row r="892">
       <c r="A892" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B892" t="s">
-        <v>5</v>
+        <v>453</v>
       </c>
       <c r="C892" t="s">
-        <v>67</v>
+        <v>1063</v>
       </c>
       <c r="D892"/>
     </row>
     <row r="893">
       <c r="A893" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B893" t="s">
+        <v>455</v>
+      </c>
+      <c r="C893" t="s">
         <v>1064</v>
-      </c>
-      <c r="B893" t="s">
-        <v>7</v>
-      </c>
-      <c r="C893" t="s">
-        <v>713</v>
       </c>
       <c r="D893"/>
     </row>
     <row r="894">
       <c r="A894" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B894" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="C894" t="s">
         <v>1065</v>
@@ -15184,10 +15135,10 @@
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B895" t="s">
-        <v>11</v>
+        <v>625</v>
       </c>
       <c r="C895" t="s">
         <v>1066</v>
@@ -15196,10 +15147,10 @@
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B896" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="C896" t="s">
         <v>1067</v>
@@ -15208,10 +15159,10 @@
     </row>
     <row r="897">
       <c r="A897" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B897" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="C897" t="s">
         <v>1068</v>
@@ -15220,305 +15171,285 @@
     </row>
     <row r="898">
       <c r="A898" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B898" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C898" t="s">
-        <v>80</v>
+        <v>1069</v>
       </c>
       <c r="D898"/>
     </row>
     <row r="899">
       <c r="A899" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B899" t="s">
+        <v>103</v>
+      </c>
+      <c r="C899" t="s">
         <v>1070</v>
       </c>
-      <c r="C899" t="s">
-        <v>210</v>
-      </c>
-      <c r="D899" t="n">
-        <v>0</v>
-      </c>
+      <c r="D899"/>
     </row>
     <row r="900">
       <c r="A900" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B900" t="s">
-        <v>905</v>
+        <v>642</v>
       </c>
       <c r="C900" t="s">
         <v>1071</v>
       </c>
-      <c r="D900" t="n">
-        <v>1</v>
-      </c>
+      <c r="D900"/>
     </row>
     <row r="901">
       <c r="A901" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B901" t="s">
+        <v>19</v>
+      </c>
+      <c r="C901" t="s">
         <v>1072</v>
       </c>
-      <c r="C901" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D901" t="n">
-        <v>1</v>
-      </c>
+      <c r="D901"/>
     </row>
     <row r="902">
       <c r="A902" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B902" t="s">
-        <v>1074</v>
+        <v>5</v>
       </c>
       <c r="C902" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D902" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D902"/>
     </row>
     <row r="903">
       <c r="A903" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B903" t="s">
-        <v>1076</v>
+        <v>7</v>
       </c>
       <c r="C903" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D903" t="n">
-        <v>1</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="D903"/>
     </row>
     <row r="904">
       <c r="A904" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B904" t="s">
-        <v>1078</v>
+        <v>9</v>
       </c>
       <c r="C904" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D904" t="n">
-        <v>1</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="D904"/>
     </row>
     <row r="905">
       <c r="A905" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B905" t="s">
-        <v>1080</v>
+        <v>11</v>
       </c>
       <c r="C905" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D905" t="n">
-        <v>1</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="D905"/>
     </row>
     <row r="906">
       <c r="A906" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B906" t="s">
-        <v>1082</v>
+        <v>13</v>
       </c>
       <c r="C906" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D906" t="n">
-        <v>1</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="D906"/>
     </row>
     <row r="907">
       <c r="A907" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B907" t="s">
-        <v>1084</v>
+        <v>15</v>
       </c>
       <c r="C907" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D907" t="n">
-        <v>1</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="D907"/>
     </row>
     <row r="908">
       <c r="A908" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B908" t="s">
-        <v>908</v>
+        <v>17</v>
       </c>
       <c r="C908" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D908" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D908"/>
     </row>
     <row r="909">
       <c r="A909" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B909" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C909" t="s">
-        <v>1087</v>
+        <v>210</v>
       </c>
       <c r="D909" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B910" t="s">
-        <v>1088</v>
+        <v>914</v>
       </c>
       <c r="C910" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="D910" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B911" t="s">
-        <v>913</v>
+        <v>1081</v>
       </c>
       <c r="C911" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="D911" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B912" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="C912" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="D912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B913" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C913" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="D913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B914" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C914" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="D914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B915" t="s">
-        <v>915</v>
+        <v>1089</v>
       </c>
       <c r="C915" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="D915" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B916" t="s">
-        <v>917</v>
+        <v>1091</v>
       </c>
       <c r="C916" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="D916" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B917" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C917" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="D917" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B918" t="s">
-        <v>1097</v>
+        <v>917</v>
       </c>
       <c r="C918" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="D918" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B919" t="s">
-        <v>919</v>
+        <v>1095</v>
       </c>
       <c r="C919" t="s">
-        <v>1071</v>
+        <v>1096</v>
       </c>
       <c r="D919" t="n">
         <v>4</v>
@@ -15526,83 +15457,83 @@
     </row>
     <row r="920">
       <c r="A920" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B920" t="s">
-        <v>921</v>
+        <v>1097</v>
       </c>
       <c r="C920" t="s">
-        <v>1071</v>
+        <v>1098</v>
       </c>
       <c r="D920" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B921" t="s">
-        <v>1099</v>
+        <v>922</v>
       </c>
       <c r="C921" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="D921" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B922" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C922" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B923" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C923" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B924" t="s">
-        <v>923</v>
+        <v>1103</v>
       </c>
       <c r="C924" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="D924" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B925" t="s">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="C925" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="D925" t="n">
         <v>4</v>
@@ -15610,13 +15541,13 @@
     </row>
     <row r="926">
       <c r="A926" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B926" t="s">
-        <v>1107</v>
+        <v>926</v>
       </c>
       <c r="C926" t="s">
-        <v>1108</v>
+        <v>1080</v>
       </c>
       <c r="D926" t="n">
         <v>4</v>
@@ -15624,13 +15555,13 @@
     </row>
     <row r="927">
       <c r="A927" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B927" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C927" t="s">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="D927" t="n">
         <v>4</v>
@@ -15638,27 +15569,27 @@
     </row>
     <row r="928">
       <c r="A928" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B928" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C928" t="s">
-        <v>1085</v>
+        <v>1107</v>
       </c>
       <c r="D928" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B929" t="s">
-        <v>1112</v>
+        <v>928</v>
       </c>
       <c r="C929" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="D929" t="n">
         <v>4</v>
@@ -15666,69 +15597,69 @@
     </row>
     <row r="930">
       <c r="A930" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B930" t="s">
-        <v>1113</v>
+        <v>930</v>
       </c>
       <c r="C930" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="D930" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B931" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C931" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="D931" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B932" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C932" t="s">
-        <v>1071</v>
+        <v>1111</v>
       </c>
       <c r="D932" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B933" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C933" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D933" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B934" t="s">
-        <v>1118</v>
+        <v>932</v>
       </c>
       <c r="C934" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="D934" t="n">
         <v>4</v>
@@ -15736,13 +15667,13 @@
     </row>
     <row r="935">
       <c r="A935" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B935" t="s">
-        <v>943</v>
+        <v>1114</v>
       </c>
       <c r="C935" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D935" t="n">
         <v>4</v>
@@ -15750,13 +15681,13 @@
     </row>
     <row r="936">
       <c r="A936" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B936" t="s">
-        <v>945</v>
+        <v>1116</v>
       </c>
       <c r="C936" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D936" t="n">
         <v>4</v>
@@ -15764,13 +15695,13 @@
     </row>
     <row r="937">
       <c r="A937" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B937" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C937" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D937" t="n">
         <v>4</v>
@@ -15778,504 +15709,524 @@
     </row>
     <row r="938">
       <c r="A938" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B938" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C938" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="D938" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B939" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C939" t="s">
-        <v>1125</v>
+        <v>1080</v>
       </c>
       <c r="D939" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B940" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C940" t="s">
-        <v>1127</v>
+        <v>1080</v>
       </c>
       <c r="D940" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B941" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C941" t="s">
-        <v>1129</v>
+        <v>1080</v>
       </c>
       <c r="D941" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B942" t="s">
-        <v>984</v>
+        <v>1124</v>
       </c>
       <c r="C942" t="s">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="D942" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B943" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C943" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="D943" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B944" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C944" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="D944" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B945" t="s">
-        <v>1134</v>
+        <v>952</v>
       </c>
       <c r="C945" t="s">
-        <v>1071</v>
+        <v>1128</v>
       </c>
       <c r="D945" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B946" t="s">
-        <v>1135</v>
+        <v>954</v>
       </c>
       <c r="C946" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="D946" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B947" t="s">
-        <v>925</v>
+        <v>1130</v>
       </c>
       <c r="C947" t="s">
-        <v>1071</v>
+        <v>1131</v>
       </c>
       <c r="D947" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B948" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C948" t="s">
-        <v>1138</v>
+        <v>1080</v>
       </c>
       <c r="D948" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B949" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C949" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D949" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B950" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C950" t="s">
-        <v>1071</v>
+        <v>1136</v>
       </c>
       <c r="D950" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B951" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C951" t="s">
-        <v>1071</v>
+        <v>1138</v>
       </c>
       <c r="D951" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B952" t="s">
-        <v>1143</v>
+        <v>993</v>
       </c>
       <c r="C952" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="D952" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B953" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C953" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D953" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B954" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C954" t="s">
-        <v>1148</v>
+        <v>1080</v>
       </c>
       <c r="D954" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B955" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C955" t="s">
-        <v>1150</v>
+        <v>1080</v>
       </c>
       <c r="D955" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="B956" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C956" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="D956" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B957" t="s">
-        <v>5</v>
+        <v>934</v>
       </c>
       <c r="C957" t="s">
-        <v>82</v>
-      </c>
-      <c r="D957"/>
+        <v>1080</v>
+      </c>
+      <c r="D957" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B958" t="s">
-        <v>7</v>
+        <v>1146</v>
       </c>
       <c r="C958" t="s">
-        <v>83</v>
-      </c>
-      <c r="D958"/>
+        <v>1147</v>
+      </c>
+      <c r="D958" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B959" t="s">
-        <v>9</v>
+        <v>1148</v>
       </c>
       <c r="C959" t="s">
-        <v>84</v>
-      </c>
-      <c r="D959"/>
+        <v>1149</v>
+      </c>
+      <c r="D959" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B960" t="s">
-        <v>11</v>
+        <v>1150</v>
       </c>
       <c r="C960" t="s">
-        <v>85</v>
-      </c>
-      <c r="D960"/>
+        <v>1080</v>
+      </c>
+      <c r="D960" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B961" t="s">
-        <v>13</v>
+        <v>1151</v>
       </c>
       <c r="C961" t="s">
-        <v>86</v>
-      </c>
-      <c r="D961"/>
+        <v>1080</v>
+      </c>
+      <c r="D961" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C962" t="s">
         <v>1153</v>
       </c>
-      <c r="B962" t="s">
-        <v>15</v>
-      </c>
-      <c r="C962" t="s">
-        <v>87</v>
-      </c>
-      <c r="D962"/>
+      <c r="D962" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B963" t="s">
-        <v>17</v>
+        <v>1154</v>
       </c>
       <c r="C963" t="s">
-        <v>88</v>
-      </c>
-      <c r="D963"/>
+        <v>1155</v>
+      </c>
+      <c r="D963" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B964" t="s">
-        <v>29</v>
+        <v>1156</v>
       </c>
       <c r="C964" t="s">
-        <v>89</v>
-      </c>
-      <c r="D964"/>
+        <v>1157</v>
+      </c>
+      <c r="D964" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="s">
-        <v>1153</v>
+        <v>1078</v>
       </c>
       <c r="B965" t="s">
-        <v>34</v>
+        <v>1158</v>
       </c>
       <c r="C965" t="s">
-        <v>90</v>
-      </c>
-      <c r="D965"/>
+        <v>1159</v>
+      </c>
+      <c r="D965" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" t="s">
-        <v>1154</v>
+        <v>1078</v>
       </c>
       <c r="B966" t="s">
-        <v>5</v>
+        <v>1160</v>
       </c>
       <c r="C966" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D966"/>
+        <v>1161</v>
+      </c>
+      <c r="D966" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B967" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C967" t="s">
-        <v>1156</v>
+        <v>82</v>
       </c>
       <c r="D967"/>
     </row>
     <row r="968">
       <c r="A968" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B968" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C968" t="s">
-        <v>1157</v>
+        <v>83</v>
       </c>
       <c r="D968"/>
     </row>
     <row r="969">
       <c r="A969" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B969" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C969" t="s">
-        <v>1158</v>
+        <v>84</v>
       </c>
       <c r="D969"/>
     </row>
     <row r="970">
       <c r="A970" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B970" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C970" t="s">
-        <v>1159</v>
+        <v>85</v>
       </c>
       <c r="D970"/>
     </row>
     <row r="971">
       <c r="A971" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B971" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C971" t="s">
-        <v>1160</v>
+        <v>86</v>
       </c>
       <c r="D971"/>
     </row>
     <row r="972">
       <c r="A972" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B972" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C972" t="s">
-        <v>776</v>
+        <v>87</v>
       </c>
       <c r="D972"/>
     </row>
     <row r="973">
       <c r="A973" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B973" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C973" t="s">
-        <v>1161</v>
+        <v>88</v>
       </c>
       <c r="D973"/>
     </row>
     <row r="974">
       <c r="A974" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B974" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C974" t="s">
-        <v>1162</v>
+        <v>89</v>
       </c>
       <c r="D974"/>
     </row>
     <row r="975">
       <c r="A975" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B975" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C975" t="s">
-        <v>1163</v>
+        <v>90</v>
       </c>
       <c r="D975"/>
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="B976" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C976" t="s">
         <v>1164</v>
@@ -16284,365 +16235,485 @@
     </row>
     <row r="977">
       <c r="A977" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B977" t="s">
+        <v>7</v>
+      </c>
+      <c r="C977" t="s">
         <v>1165</v>
-      </c>
-      <c r="B977" t="s">
-        <v>45</v>
-      </c>
-      <c r="C977" t="s">
-        <v>1166</v>
       </c>
       <c r="D977"/>
     </row>
     <row r="978">
       <c r="A978" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B978" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C978" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D978"/>
     </row>
     <row r="979">
       <c r="A979" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B979" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C979" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D979"/>
     </row>
     <row r="980">
       <c r="A980" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B980" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C980" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D980"/>
     </row>
     <row r="981">
       <c r="A981" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B981" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C981" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D981"/>
     </row>
     <row r="982">
       <c r="A982" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B982" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C982" t="s">
-        <v>1171</v>
+        <v>785</v>
       </c>
       <c r="D982"/>
     </row>
     <row r="983">
       <c r="A983" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B983" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C983" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D983"/>
     </row>
     <row r="984">
       <c r="A984" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B984" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C984" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D984"/>
     </row>
     <row r="985">
       <c r="A985" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B985" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C985" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D985"/>
     </row>
     <row r="986">
       <c r="A986" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B986" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C986" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D986"/>
     </row>
     <row r="987">
       <c r="A987" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B987" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C987" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D987"/>
     </row>
     <row r="988">
       <c r="A988" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B988" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C988" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D988"/>
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B989" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C989" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D989"/>
     </row>
     <row r="990">
       <c r="A990" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B990" t="s">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="C990" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D990"/>
     </row>
     <row r="991">
       <c r="A991" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B991" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="C991" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D991"/>
     </row>
     <row r="992">
       <c r="A992" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B992" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="C992" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D992"/>
     </row>
     <row r="993">
       <c r="A993" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B993" t="s">
-        <v>467</v>
+        <v>57</v>
       </c>
       <c r="C993" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D993"/>
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B994" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C994" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D994"/>
     </row>
     <row r="995">
       <c r="A995" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B995" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C995" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D995"/>
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B996" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C996" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D996"/>
     </row>
     <row r="997">
       <c r="A997" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B997" t="s">
-        <v>642</v>
+        <v>99</v>
       </c>
       <c r="C997" t="s">
-        <v>1038</v>
+        <v>1185</v>
       </c>
       <c r="D997"/>
     </row>
     <row r="998">
       <c r="A998" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B998" t="s">
+        <v>101</v>
+      </c>
+      <c r="C998" t="s">
         <v>1186</v>
       </c>
-      <c r="B998" t="s">
-        <v>5</v>
-      </c>
-      <c r="C998" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D998" t="n">
-        <v>1</v>
-      </c>
+      <c r="D998"/>
     </row>
     <row r="999">
       <c r="A999" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B999" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C999" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D999" t="n">
-        <v>2</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="D999"/>
     </row>
     <row r="1000">
       <c r="A1000" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1000" t="s">
-        <v>9</v>
+        <v>461</v>
       </c>
       <c r="C1000" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>9</v>
-      </c>
+        <v>1188</v>
+      </c>
+      <c r="D1000"/>
     </row>
     <row r="1001">
       <c r="A1001" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1001" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="C1001" t="s">
         <v>1189</v>
       </c>
-      <c r="D1001" t="n">
-        <v>5</v>
-      </c>
+      <c r="D1001"/>
     </row>
     <row r="1002">
       <c r="A1002" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1002" t="s">
-        <v>13</v>
+        <v>465</v>
       </c>
       <c r="C1002" t="s">
         <v>1190</v>
       </c>
-      <c r="D1002" t="n">
-        <v>8</v>
-      </c>
+      <c r="D1002"/>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1003" t="s">
-        <v>15</v>
+        <v>467</v>
       </c>
       <c r="C1003" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>7</v>
-      </c>
+        <v>1191</v>
+      </c>
+      <c r="D1003"/>
     </row>
     <row r="1004">
       <c r="A1004" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1004" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C1004" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>6</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="D1004"/>
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B1005" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1005"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1006"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1007"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1015" t="s">
         <v>29</v>
       </c>
-      <c r="C1005" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D1005" t="n">
+      <c r="C1015" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1015" t="n">
         <v>6</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/Education.Codes.All.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1230">
   <si>
     <t xml:space="preserve">Country_long</t>
   </si>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
-    <t xml:space="preserve">less than class 1</t>
+    <t xml:space="preserve">less than 1</t>
   </si>
   <si>
     <t xml:space="preserve">class 1</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">class 10</t>
   </si>
   <si>
-    <t xml:space="preserve">polytechniqec institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.a/fsc/icom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b.a/bsc/bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m.a/msc/med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree in engneering</t>
+    <t xml:space="preserve">polytechnic diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa/fsc/i-com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba/bsc/b.com/b.ed/post graduate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma/msc/med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree in engineering</t>
   </si>
   <si>
     <t xml:space="preserve">degree in medicine</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">degree in law</t>
   </si>
   <si>
-    <t xml:space="preserve">m.phil/phd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
+    <t xml:space="preserve">mphil/phd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">others</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay</t>
@@ -3684,6 +3684,24 @@
   </si>
   <si>
     <t xml:space="preserve">Universidad o similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
   </si>
 </sst>
 </file>
@@ -13215,7 +13233,9 @@
       <c r="C735" t="s">
         <v>886</v>
       </c>
-      <c r="D735"/>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
@@ -13227,7 +13247,9 @@
       <c r="C736" t="s">
         <v>887</v>
       </c>
-      <c r="D736"/>
+      <c r="D736" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
@@ -13239,7 +13261,9 @@
       <c r="C737" t="s">
         <v>888</v>
       </c>
-      <c r="D737"/>
+      <c r="D737" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
@@ -13251,7 +13275,9 @@
       <c r="C738" t="s">
         <v>889</v>
       </c>
-      <c r="D738"/>
+      <c r="D738" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
@@ -13263,7 +13289,9 @@
       <c r="C739" t="s">
         <v>890</v>
       </c>
-      <c r="D739"/>
+      <c r="D739" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
@@ -13275,7 +13303,9 @@
       <c r="C740" t="s">
         <v>891</v>
       </c>
-      <c r="D740"/>
+      <c r="D740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
@@ -13287,7 +13317,9 @@
       <c r="C741" t="s">
         <v>892</v>
       </c>
-      <c r="D741"/>
+      <c r="D741" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -13299,7 +13331,9 @@
       <c r="C742" t="s">
         <v>893</v>
       </c>
-      <c r="D742"/>
+      <c r="D742" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -13311,7 +13345,9 @@
       <c r="C743" t="s">
         <v>894</v>
       </c>
-      <c r="D743"/>
+      <c r="D743" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
@@ -13323,7 +13359,9 @@
       <c r="C744" t="s">
         <v>895</v>
       </c>
-      <c r="D744"/>
+      <c r="D744" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
@@ -13335,7 +13373,9 @@
       <c r="C745" t="s">
         <v>896</v>
       </c>
-      <c r="D745"/>
+      <c r="D745" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
@@ -13347,7 +13387,9 @@
       <c r="C746" t="s">
         <v>897</v>
       </c>
-      <c r="D746"/>
+      <c r="D746" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
@@ -13359,7 +13401,9 @@
       <c r="C747" t="s">
         <v>898</v>
       </c>
-      <c r="D747"/>
+      <c r="D747" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
@@ -13371,7 +13415,9 @@
       <c r="C748" t="s">
         <v>899</v>
       </c>
-      <c r="D748"/>
+      <c r="D748" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
@@ -13383,7 +13429,9 @@
       <c r="C749" t="s">
         <v>900</v>
       </c>
-      <c r="D749"/>
+      <c r="D749" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
@@ -13395,7 +13443,9 @@
       <c r="C750" t="s">
         <v>901</v>
       </c>
-      <c r="D750"/>
+      <c r="D750" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
@@ -13407,7 +13457,9 @@
       <c r="C751" t="s">
         <v>902</v>
       </c>
-      <c r="D751"/>
+      <c r="D751" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
@@ -13419,7 +13471,9 @@
       <c r="C752" t="s">
         <v>903</v>
       </c>
-      <c r="D752"/>
+      <c r="D752" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
@@ -13431,7 +13485,9 @@
       <c r="C753" t="s">
         <v>904</v>
       </c>
-      <c r="D753"/>
+      <c r="D753" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
@@ -13443,7 +13499,9 @@
       <c r="C754" t="s">
         <v>905</v>
       </c>
-      <c r="D754"/>
+      <c r="D754" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
@@ -13455,17 +13513,19 @@
       <c r="C755" t="s">
         <v>906</v>
       </c>
-      <c r="D755"/>
+      <c r="D755" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="B756" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C756" t="s">
-        <v>908</v>
+        <v>774</v>
       </c>
       <c r="D756" t="n">
         <v>0</v>
@@ -13476,13 +13536,13 @@
         <v>907</v>
       </c>
       <c r="B757" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C757" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -13490,10 +13550,10 @@
         <v>907</v>
       </c>
       <c r="B758" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C758" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D758" t="n">
         <v>1</v>
@@ -13504,10 +13564,10 @@
         <v>907</v>
       </c>
       <c r="B759" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C759" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D759" t="n">
         <v>1</v>
@@ -13518,13 +13578,13 @@
         <v>907</v>
       </c>
       <c r="B760" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C760" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -13532,13 +13592,13 @@
         <v>907</v>
       </c>
       <c r="B761" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C761" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762">
@@ -13546,10 +13606,10 @@
         <v>907</v>
       </c>
       <c r="B762" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C762" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D762" t="n">
         <v>3</v>
@@ -13560,10 +13620,10 @@
         <v>907</v>
       </c>
       <c r="B763" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C763" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D763" t="n">
         <v>3</v>
@@ -13574,10 +13634,10 @@
         <v>907</v>
       </c>
       <c r="B764" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C764" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D764" t="n">
         <v>3</v>
@@ -13588,10 +13648,10 @@
         <v>907</v>
       </c>
       <c r="B765" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C765" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D765" t="n">
         <v>3</v>
@@ -13602,10 +13662,10 @@
         <v>907</v>
       </c>
       <c r="B766" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C766" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D766" t="n">
         <v>3</v>
@@ -13616,13 +13676,13 @@
         <v>907</v>
       </c>
       <c r="B767" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C767" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D767" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -13630,10 +13690,10 @@
         <v>907</v>
       </c>
       <c r="B768" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C768" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D768" t="n">
         <v>2</v>
@@ -13644,10 +13704,10 @@
         <v>907</v>
       </c>
       <c r="B769" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C769" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D769" t="n">
         <v>2</v>
@@ -13658,13 +13718,13 @@
         <v>907</v>
       </c>
       <c r="B770" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C770" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -13672,13 +13732,13 @@
         <v>907</v>
       </c>
       <c r="B771" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C771" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D771" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -13686,10 +13746,10 @@
         <v>907</v>
       </c>
       <c r="B772" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C772" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D772" t="n">
         <v>4</v>
@@ -13700,10 +13760,10 @@
         <v>907</v>
       </c>
       <c r="B773" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C773" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D773" t="n">
         <v>4</v>
@@ -13714,13 +13774,13 @@
         <v>907</v>
       </c>
       <c r="B774" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C774" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D774" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="775">
@@ -13728,13 +13788,13 @@
         <v>907</v>
       </c>
       <c r="B775" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C775" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D775" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="776">
@@ -13742,49 +13802,49 @@
         <v>907</v>
       </c>
       <c r="B776" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C776" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D776" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="s">
         <v>907</v>
       </c>
-      <c r="B777"/>
-      <c r="C777"/>
-      <c r="D777"/>
+      <c r="B777" t="s">
+        <v>19</v>
+      </c>
+      <c r="C777" t="s">
+        <v>928</v>
+      </c>
+      <c r="D777" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>929</v>
-      </c>
-      <c r="B778" t="s">
-        <v>5</v>
-      </c>
-      <c r="C778" t="s">
-        <v>930</v>
-      </c>
-      <c r="D778" t="n">
-        <v>0</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B778"/>
+      <c r="C778"/>
+      <c r="D778"/>
     </row>
     <row r="779">
       <c r="A779" t="s">
         <v>929</v>
       </c>
       <c r="B779" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C779" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -13792,10 +13852,10 @@
         <v>929</v>
       </c>
       <c r="B780" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C780" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D780" t="n">
         <v>1</v>
@@ -13806,10 +13866,10 @@
         <v>929</v>
       </c>
       <c r="B781" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C781" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D781" t="n">
         <v>1</v>
@@ -13820,13 +13880,13 @@
         <v>929</v>
       </c>
       <c r="B782" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C782" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -13834,13 +13894,13 @@
         <v>929</v>
       </c>
       <c r="B783" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C783" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -13848,13 +13908,13 @@
         <v>929</v>
       </c>
       <c r="B784" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C784" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D784" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -13862,10 +13922,10 @@
         <v>929</v>
       </c>
       <c r="B785" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C785" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D785" t="n">
         <v>4</v>
@@ -13876,13 +13936,13 @@
         <v>929</v>
       </c>
       <c r="B786" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C786" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D786" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787">
@@ -13890,13 +13950,13 @@
         <v>929</v>
       </c>
       <c r="B787" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C787" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D787" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788">
@@ -13904,13 +13964,13 @@
         <v>929</v>
       </c>
       <c r="B788" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C788" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D788" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="789">
@@ -13918,36 +13978,38 @@
         <v>929</v>
       </c>
       <c r="B789" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C789" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D789" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="B790" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C790" t="s">
-        <v>943</v>
-      </c>
-      <c r="D790"/>
+        <v>941</v>
+      </c>
+      <c r="D790" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="s">
         <v>942</v>
       </c>
       <c r="B791" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C791" t="s">
-        <v>806</v>
+        <v>943</v>
       </c>
       <c r="D791"/>
     </row>
@@ -13956,10 +14018,10 @@
         <v>942</v>
       </c>
       <c r="B792" t="s">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="C792" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="D792"/>
     </row>
@@ -13968,10 +14030,10 @@
         <v>942</v>
       </c>
       <c r="B793" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C793" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D793"/>
     </row>
@@ -13980,10 +14042,10 @@
         <v>942</v>
       </c>
       <c r="B794" t="s">
-        <v>755</v>
+        <v>544</v>
       </c>
       <c r="C794" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D794"/>
     </row>
@@ -13992,10 +14054,10 @@
         <v>942</v>
       </c>
       <c r="B795" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C795" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D795"/>
     </row>
@@ -14004,10 +14066,10 @@
         <v>942</v>
       </c>
       <c r="B796" t="s">
-        <v>944</v>
+        <v>757</v>
       </c>
       <c r="C796" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D796"/>
     </row>
@@ -14016,10 +14078,10 @@
         <v>942</v>
       </c>
       <c r="B797" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C797" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D797"/>
     </row>
@@ -14028,10 +14090,10 @@
         <v>942</v>
       </c>
       <c r="B798" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C798" t="s">
-        <v>947</v>
+        <v>831</v>
       </c>
       <c r="D798"/>
     </row>
@@ -14040,10 +14102,10 @@
         <v>942</v>
       </c>
       <c r="B799" t="s">
-        <v>546</v>
+        <v>946</v>
       </c>
       <c r="C799" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D799"/>
     </row>
@@ -14052,10 +14114,10 @@
         <v>942</v>
       </c>
       <c r="B800" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C800" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D800"/>
     </row>
@@ -14064,10 +14126,10 @@
         <v>942</v>
       </c>
       <c r="B801" t="s">
-        <v>950</v>
+        <v>548</v>
       </c>
       <c r="C801" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D801"/>
     </row>
@@ -14076,10 +14138,10 @@
         <v>942</v>
       </c>
       <c r="B802" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C802" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D802"/>
     </row>
@@ -14088,10 +14150,10 @@
         <v>942</v>
       </c>
       <c r="B803" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C803" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D803"/>
     </row>
@@ -14100,10 +14162,10 @@
         <v>942</v>
       </c>
       <c r="B804" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C804" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D804"/>
     </row>
@@ -14112,10 +14174,10 @@
         <v>942</v>
       </c>
       <c r="B805" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C805" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D805"/>
     </row>
@@ -14124,10 +14186,10 @@
         <v>942</v>
       </c>
       <c r="B806" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C806" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D806"/>
     </row>
@@ -14136,10 +14198,10 @@
         <v>942</v>
       </c>
       <c r="B807" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C807" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D807"/>
     </row>
@@ -14148,10 +14210,10 @@
         <v>942</v>
       </c>
       <c r="B808" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C808" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D808"/>
     </row>
@@ -14160,10 +14222,10 @@
         <v>942</v>
       </c>
       <c r="B809" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C809" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D809"/>
     </row>
@@ -14172,10 +14234,10 @@
         <v>942</v>
       </c>
       <c r="B810" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C810" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D810"/>
     </row>
@@ -14184,10 +14246,10 @@
         <v>942</v>
       </c>
       <c r="B811" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C811" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D811"/>
     </row>
@@ -14196,10 +14258,10 @@
         <v>942</v>
       </c>
       <c r="B812" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C812" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D812"/>
     </row>
@@ -14208,10 +14270,10 @@
         <v>942</v>
       </c>
       <c r="B813" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C813" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D813"/>
     </row>
@@ -14220,10 +14282,10 @@
         <v>942</v>
       </c>
       <c r="B814" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C814" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D814"/>
     </row>
@@ -14232,10 +14294,10 @@
         <v>942</v>
       </c>
       <c r="B815" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C815" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D815"/>
     </row>
@@ -14244,10 +14306,10 @@
         <v>942</v>
       </c>
       <c r="B816" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C816" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D816"/>
     </row>
@@ -14256,10 +14318,10 @@
         <v>942</v>
       </c>
       <c r="B817" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C817" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D817"/>
     </row>
@@ -14268,10 +14330,10 @@
         <v>942</v>
       </c>
       <c r="B818" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C818" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D818"/>
     </row>
@@ -14280,10 +14342,10 @@
         <v>942</v>
       </c>
       <c r="B819" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C819" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D819"/>
     </row>
@@ -14292,10 +14354,10 @@
         <v>942</v>
       </c>
       <c r="B820" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C820" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D820"/>
     </row>
@@ -14304,10 +14366,10 @@
         <v>942</v>
       </c>
       <c r="B821" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C821" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D821"/>
     </row>
@@ -14316,10 +14378,10 @@
         <v>942</v>
       </c>
       <c r="B822" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C822" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D822"/>
     </row>
@@ -14328,10 +14390,10 @@
         <v>942</v>
       </c>
       <c r="B823" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C823" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D823"/>
     </row>
@@ -14340,10 +14402,10 @@
         <v>942</v>
       </c>
       <c r="B824" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C824" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D824"/>
     </row>
@@ -14352,10 +14414,10 @@
         <v>942</v>
       </c>
       <c r="B825" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C825" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D825"/>
     </row>
@@ -14364,10 +14426,10 @@
         <v>942</v>
       </c>
       <c r="B826" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C826" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D826"/>
     </row>
@@ -14376,10 +14438,10 @@
         <v>942</v>
       </c>
       <c r="B827" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C827" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D827"/>
     </row>
@@ -14388,10 +14450,10 @@
         <v>942</v>
       </c>
       <c r="B828" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C828" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D828"/>
     </row>
@@ -14400,10 +14462,10 @@
         <v>942</v>
       </c>
       <c r="B829" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C829" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D829"/>
     </row>
@@ -14412,10 +14474,10 @@
         <v>942</v>
       </c>
       <c r="B830" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C830" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D830"/>
     </row>
@@ -14424,10 +14486,10 @@
         <v>942</v>
       </c>
       <c r="B831" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C831" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D831"/>
     </row>
@@ -14436,10 +14498,10 @@
         <v>942</v>
       </c>
       <c r="B832" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C832" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D832"/>
     </row>
@@ -14448,10 +14510,10 @@
         <v>942</v>
       </c>
       <c r="B833" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C833" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D833"/>
     </row>
@@ -14460,10 +14522,10 @@
         <v>942</v>
       </c>
       <c r="B834" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C834" t="s">
-        <v>969</v>
+        <v>1015</v>
       </c>
       <c r="D834"/>
     </row>
@@ -14472,10 +14534,10 @@
         <v>942</v>
       </c>
       <c r="B835" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C835" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D835"/>
     </row>
@@ -14484,10 +14546,10 @@
         <v>942</v>
       </c>
       <c r="B836" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C836" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D836"/>
     </row>
@@ -14496,10 +14558,10 @@
         <v>942</v>
       </c>
       <c r="B837" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C837" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D837"/>
     </row>
@@ -14508,10 +14570,10 @@
         <v>942</v>
       </c>
       <c r="B838" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C838" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D838"/>
     </row>
@@ -14520,10 +14582,10 @@
         <v>942</v>
       </c>
       <c r="B839" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C839" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D839"/>
     </row>
@@ -14532,10 +14594,10 @@
         <v>942</v>
       </c>
       <c r="B840" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C840" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D840"/>
     </row>
@@ -14544,10 +14606,10 @@
         <v>942</v>
       </c>
       <c r="B841" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C841" t="s">
-        <v>1024</v>
+        <v>985</v>
       </c>
       <c r="D841"/>
     </row>
@@ -14556,10 +14618,10 @@
         <v>942</v>
       </c>
       <c r="B842" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C842" t="s">
-        <v>987</v>
+        <v>1024</v>
       </c>
       <c r="D842"/>
     </row>
@@ -14568,10 +14630,10 @@
         <v>942</v>
       </c>
       <c r="B843" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C843" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D843"/>
     </row>
@@ -14580,10 +14642,10 @@
         <v>942</v>
       </c>
       <c r="B844" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C844" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
       <c r="D844"/>
     </row>
@@ -14592,10 +14654,10 @@
         <v>942</v>
       </c>
       <c r="B845" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C845" t="s">
-        <v>991</v>
+        <v>1028</v>
       </c>
       <c r="D845"/>
     </row>
@@ -14604,10 +14666,10 @@
         <v>942</v>
       </c>
       <c r="B846" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C846" t="s">
-        <v>1031</v>
+        <v>991</v>
       </c>
       <c r="D846"/>
     </row>
@@ -14616,10 +14678,10 @@
         <v>942</v>
       </c>
       <c r="B847" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C847" t="s">
-        <v>995</v>
+        <v>1031</v>
       </c>
       <c r="D847"/>
     </row>
@@ -14628,10 +14690,10 @@
         <v>942</v>
       </c>
       <c r="B848" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C848" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D848"/>
     </row>
@@ -14640,10 +14702,10 @@
         <v>942</v>
       </c>
       <c r="B849" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C849" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D849"/>
     </row>
@@ -14652,10 +14714,10 @@
         <v>942</v>
       </c>
       <c r="B850" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C850" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D850"/>
     </row>
@@ -14664,10 +14726,10 @@
         <v>942</v>
       </c>
       <c r="B851" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C851" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D851"/>
     </row>
@@ -14676,10 +14738,10 @@
         <v>942</v>
       </c>
       <c r="B852" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C852" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D852"/>
     </row>
@@ -14688,10 +14750,10 @@
         <v>942</v>
       </c>
       <c r="B853" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C853" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D853"/>
     </row>
@@ -14700,10 +14762,10 @@
         <v>942</v>
       </c>
       <c r="B854" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C854" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D854"/>
     </row>
@@ -14712,10 +14774,10 @@
         <v>942</v>
       </c>
       <c r="B855" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C855" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D855"/>
     </row>
@@ -14724,10 +14786,10 @@
         <v>942</v>
       </c>
       <c r="B856" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C856" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D856"/>
     </row>
@@ -14736,22 +14798,22 @@
         <v>942</v>
       </c>
       <c r="B857" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C857" t="s">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="D857"/>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>1044</v>
+        <v>942</v>
       </c>
       <c r="B858" t="s">
-        <v>5</v>
+        <v>1042</v>
       </c>
       <c r="C858" t="s">
-        <v>767</v>
+        <v>1043</v>
       </c>
       <c r="D858"/>
     </row>
@@ -14760,10 +14822,10 @@
         <v>1044</v>
       </c>
       <c r="B859" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C859" t="s">
-        <v>1045</v>
+        <v>767</v>
       </c>
       <c r="D859"/>
     </row>
@@ -14772,10 +14834,10 @@
         <v>1044</v>
       </c>
       <c r="B860" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C860" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D860"/>
     </row>
@@ -14784,10 +14846,10 @@
         <v>1044</v>
       </c>
       <c r="B861" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C861" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D861"/>
     </row>
@@ -14796,10 +14858,10 @@
         <v>1044</v>
       </c>
       <c r="B862" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C862" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D862"/>
     </row>
@@ -14808,10 +14870,10 @@
         <v>1044</v>
       </c>
       <c r="B863" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C863" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D863"/>
     </row>
@@ -14820,10 +14882,10 @@
         <v>1044</v>
       </c>
       <c r="B864" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C864" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D864"/>
     </row>
@@ -14832,10 +14894,10 @@
         <v>1044</v>
       </c>
       <c r="B865" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C865" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D865"/>
     </row>
@@ -14844,10 +14906,10 @@
         <v>1044</v>
       </c>
       <c r="B866" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C866" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D866"/>
     </row>
@@ -14856,10 +14918,10 @@
         <v>1044</v>
       </c>
       <c r="B867" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C867" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D867"/>
     </row>
@@ -14868,10 +14930,10 @@
         <v>1044</v>
       </c>
       <c r="B868" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C868" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D868"/>
     </row>
@@ -14880,10 +14942,10 @@
         <v>1044</v>
       </c>
       <c r="B869" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C869" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D869"/>
     </row>
@@ -14892,10 +14954,10 @@
         <v>1044</v>
       </c>
       <c r="B870" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C870" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D870"/>
     </row>
@@ -14904,10 +14966,10 @@
         <v>1044</v>
       </c>
       <c r="B871" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C871" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D871"/>
     </row>
@@ -14916,10 +14978,10 @@
         <v>1044</v>
       </c>
       <c r="B872" t="s">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="C872" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D872"/>
     </row>
@@ -14928,10 +14990,10 @@
         <v>1044</v>
       </c>
       <c r="B873" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C873" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D873"/>
     </row>
@@ -14940,10 +15002,10 @@
         <v>1044</v>
       </c>
       <c r="B874" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="C874" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D874"/>
     </row>
@@ -14952,10 +15014,10 @@
         <v>1044</v>
       </c>
       <c r="B875" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C875" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D875"/>
     </row>
@@ -14964,10 +15026,10 @@
         <v>1044</v>
       </c>
       <c r="B876" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C876" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D876"/>
     </row>
@@ -14976,10 +15038,10 @@
         <v>1044</v>
       </c>
       <c r="B877" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C877" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D877"/>
     </row>
@@ -14988,10 +15050,10 @@
         <v>1044</v>
       </c>
       <c r="B878" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="C878" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D878"/>
     </row>
@@ -15000,10 +15062,10 @@
         <v>1044</v>
       </c>
       <c r="B879" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C879" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D879"/>
     </row>
@@ -15012,10 +15074,10 @@
         <v>1044</v>
       </c>
       <c r="B880" t="s">
-        <v>475</v>
+        <v>107</v>
       </c>
       <c r="C880" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D880"/>
     </row>
@@ -15024,10 +15086,10 @@
         <v>1044</v>
       </c>
       <c r="B881" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C881" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D881"/>
     </row>
@@ -15036,10 +15098,10 @@
         <v>1044</v>
       </c>
       <c r="B882" t="s">
-        <v>871</v>
+        <v>477</v>
       </c>
       <c r="C882" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D882"/>
     </row>
@@ -15048,10 +15110,10 @@
         <v>1044</v>
       </c>
       <c r="B883" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C883" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D883"/>
     </row>
@@ -15060,10 +15122,10 @@
         <v>1044</v>
       </c>
       <c r="B884" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C884" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D884"/>
     </row>
@@ -15072,22 +15134,22 @@
         <v>1044</v>
       </c>
       <c r="B885" t="s">
-        <v>664</v>
+        <v>873</v>
       </c>
       <c r="C885" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D885"/>
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="B886" t="s">
-        <v>5</v>
+        <v>664</v>
       </c>
       <c r="C886" t="s">
-        <v>82</v>
+        <v>1071</v>
       </c>
       <c r="D886"/>
     </row>
@@ -15096,10 +15158,10 @@
         <v>1072</v>
       </c>
       <c r="B887" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C887" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D887"/>
     </row>
@@ -15108,10 +15170,10 @@
         <v>1072</v>
       </c>
       <c r="B888" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C888" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D888"/>
     </row>
@@ -15120,10 +15182,10 @@
         <v>1072</v>
       </c>
       <c r="B889" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C889" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D889"/>
     </row>
@@ -15132,10 +15194,10 @@
         <v>1072</v>
       </c>
       <c r="B890" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C890" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D890"/>
     </row>
@@ -15144,10 +15206,10 @@
         <v>1072</v>
       </c>
       <c r="B891" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C891" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D891"/>
     </row>
@@ -15156,10 +15218,10 @@
         <v>1072</v>
       </c>
       <c r="B892" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C892" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D892"/>
     </row>
@@ -15168,10 +15230,10 @@
         <v>1072</v>
       </c>
       <c r="B893" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C893" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D893"/>
     </row>
@@ -15180,22 +15242,22 @@
         <v>1072</v>
       </c>
       <c r="B894" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C894" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D894"/>
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B895" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C895" t="s">
-        <v>1074</v>
+        <v>90</v>
       </c>
       <c r="D895"/>
     </row>
@@ -15204,10 +15266,10 @@
         <v>1073</v>
       </c>
       <c r="B896" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C896" t="s">
-        <v>826</v>
+        <v>1074</v>
       </c>
       <c r="D896"/>
     </row>
@@ -15216,10 +15278,10 @@
         <v>1073</v>
       </c>
       <c r="B897" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C897" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D897"/>
     </row>
@@ -15228,10 +15290,10 @@
         <v>1073</v>
       </c>
       <c r="B898" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C898" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D898"/>
     </row>
@@ -15240,10 +15302,10 @@
         <v>1073</v>
       </c>
       <c r="B899" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C899" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D899"/>
     </row>
@@ -15252,10 +15314,10 @@
         <v>1073</v>
       </c>
       <c r="B900" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C900" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D900"/>
     </row>
@@ -15264,10 +15326,10 @@
         <v>1073</v>
       </c>
       <c r="B901" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C901" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D901"/>
     </row>
@@ -15276,10 +15338,10 @@
         <v>1073</v>
       </c>
       <c r="B902" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C902" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D902"/>
     </row>
@@ -15288,10 +15350,10 @@
         <v>1073</v>
       </c>
       <c r="B903" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C903" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D903"/>
     </row>
@@ -15300,10 +15362,10 @@
         <v>1073</v>
       </c>
       <c r="B904" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C904" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D904"/>
     </row>
@@ -15312,10 +15374,10 @@
         <v>1073</v>
       </c>
       <c r="B905" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C905" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D905"/>
     </row>
@@ -15324,10 +15386,10 @@
         <v>1073</v>
       </c>
       <c r="B906" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C906" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D906"/>
     </row>
@@ -15336,10 +15398,10 @@
         <v>1073</v>
       </c>
       <c r="B907" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C907" t="s">
-        <v>1075</v>
+        <v>836</v>
       </c>
       <c r="D907"/>
     </row>
@@ -15348,10 +15410,10 @@
         <v>1073</v>
       </c>
       <c r="B908" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C908" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D908"/>
     </row>
@@ -15360,10 +15422,10 @@
         <v>1073</v>
       </c>
       <c r="B909" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C909" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D909"/>
     </row>
@@ -15372,10 +15434,10 @@
         <v>1073</v>
       </c>
       <c r="B910" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C910" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D910"/>
     </row>
@@ -15384,10 +15446,10 @@
         <v>1073</v>
       </c>
       <c r="B911" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C911" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D911"/>
     </row>
@@ -15396,10 +15458,10 @@
         <v>1073</v>
       </c>
       <c r="B912" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C912" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D912"/>
     </row>
@@ -15408,10 +15470,10 @@
         <v>1073</v>
       </c>
       <c r="B913" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C913" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D913"/>
     </row>
@@ -15420,10 +15482,10 @@
         <v>1073</v>
       </c>
       <c r="B914" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C914" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D914"/>
     </row>
@@ -15432,10 +15494,10 @@
         <v>1073</v>
       </c>
       <c r="B915" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C915" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D915"/>
     </row>
@@ -15444,10 +15506,10 @@
         <v>1073</v>
       </c>
       <c r="B916" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C916" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D916"/>
     </row>
@@ -15456,10 +15518,10 @@
         <v>1073</v>
       </c>
       <c r="B917" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C917" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D917"/>
     </row>
@@ -15468,10 +15530,10 @@
         <v>1073</v>
       </c>
       <c r="B918" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C918" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D918"/>
     </row>
@@ -15480,10 +15542,10 @@
         <v>1073</v>
       </c>
       <c r="B919" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C919" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D919"/>
     </row>
@@ -15492,10 +15554,10 @@
         <v>1073</v>
       </c>
       <c r="B920" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C920" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D920"/>
     </row>
@@ -15504,10 +15566,10 @@
         <v>1073</v>
       </c>
       <c r="B921" t="s">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="C921" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D921"/>
     </row>
@@ -15516,10 +15578,10 @@
         <v>1073</v>
       </c>
       <c r="B922" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C922" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D922"/>
     </row>
@@ -15528,10 +15590,10 @@
         <v>1073</v>
       </c>
       <c r="B923" t="s">
-        <v>457</v>
+        <v>647</v>
       </c>
       <c r="C923" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D923"/>
     </row>
@@ -15540,10 +15602,10 @@
         <v>1073</v>
       </c>
       <c r="B924" t="s">
-        <v>161</v>
+        <v>457</v>
       </c>
       <c r="C924" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D924"/>
     </row>
@@ -15552,10 +15614,10 @@
         <v>1073</v>
       </c>
       <c r="B925" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C925" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D925"/>
     </row>
@@ -15564,10 +15626,10 @@
         <v>1073</v>
       </c>
       <c r="B926" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C926" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D926"/>
     </row>
@@ -15576,10 +15638,10 @@
         <v>1073</v>
       </c>
       <c r="B927" t="s">
-        <v>664</v>
+        <v>103</v>
       </c>
       <c r="C927" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D927"/>
     </row>
@@ -15588,22 +15650,22 @@
         <v>1073</v>
       </c>
       <c r="B928" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="C928" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D928"/>
     </row>
     <row r="929">
       <c r="A929" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
       <c r="B929" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C929" t="s">
-        <v>67</v>
+        <v>1096</v>
       </c>
       <c r="D929"/>
     </row>
@@ -15612,10 +15674,10 @@
         <v>1097</v>
       </c>
       <c r="B930" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C930" t="s">
-        <v>543</v>
+        <v>67</v>
       </c>
       <c r="D930"/>
     </row>
@@ -15624,10 +15686,10 @@
         <v>1097</v>
       </c>
       <c r="B931" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C931" t="s">
-        <v>1098</v>
+        <v>543</v>
       </c>
       <c r="D931"/>
     </row>
@@ -15636,10 +15698,10 @@
         <v>1097</v>
       </c>
       <c r="B932" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C932" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D932"/>
     </row>
@@ -15648,10 +15710,10 @@
         <v>1097</v>
       </c>
       <c r="B933" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C933" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D933"/>
     </row>
@@ -15660,10 +15722,10 @@
         <v>1097</v>
       </c>
       <c r="B934" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C934" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D934"/>
     </row>
@@ -15672,39 +15734,37 @@
         <v>1097</v>
       </c>
       <c r="B935" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C935" t="s">
-        <v>80</v>
+        <v>1101</v>
       </c>
       <c r="D935"/>
     </row>
     <row r="936">
       <c r="A936" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B936" t="s">
-        <v>1103</v>
+        <v>17</v>
       </c>
       <c r="C936" t="s">
-        <v>210</v>
-      </c>
-      <c r="D936" t="n">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D936"/>
     </row>
     <row r="937">
       <c r="A937" t="s">
         <v>1102</v>
       </c>
       <c r="B937" t="s">
-        <v>542</v>
+        <v>1103</v>
       </c>
       <c r="C937" t="s">
-        <v>1104</v>
+        <v>210</v>
       </c>
       <c r="D937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -15712,10 +15772,10 @@
         <v>1102</v>
       </c>
       <c r="B938" t="s">
-        <v>1105</v>
+        <v>542</v>
       </c>
       <c r="C938" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D938" t="n">
         <v>1</v>
@@ -15726,10 +15786,10 @@
         <v>1102</v>
       </c>
       <c r="B939" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C939" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D939" t="n">
         <v>1</v>
@@ -15740,10 +15800,10 @@
         <v>1102</v>
       </c>
       <c r="B940" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C940" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D940" t="n">
         <v>1</v>
@@ -15754,10 +15814,10 @@
         <v>1102</v>
       </c>
       <c r="B941" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C941" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D941" t="n">
         <v>1</v>
@@ -15768,10 +15828,10 @@
         <v>1102</v>
       </c>
       <c r="B942" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C942" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D942" t="n">
         <v>1</v>
@@ -15782,10 +15842,10 @@
         <v>1102</v>
       </c>
       <c r="B943" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C943" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D943" t="n">
         <v>1</v>
@@ -15796,10 +15856,10 @@
         <v>1102</v>
       </c>
       <c r="B944" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C944" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D944" t="n">
         <v>1</v>
@@ -15810,13 +15870,13 @@
         <v>1102</v>
       </c>
       <c r="B945" t="s">
-        <v>757</v>
+        <v>1117</v>
       </c>
       <c r="C945" t="s">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="D945" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -15824,10 +15884,10 @@
         <v>1102</v>
       </c>
       <c r="B946" t="s">
-        <v>1119</v>
+        <v>757</v>
       </c>
       <c r="C946" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="D946" t="n">
         <v>4</v>
@@ -15838,10 +15898,10 @@
         <v>1102</v>
       </c>
       <c r="B947" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C947" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D947" t="n">
         <v>4</v>
@@ -15852,10 +15912,10 @@
         <v>1102</v>
       </c>
       <c r="B948" t="s">
-        <v>546</v>
+        <v>1121</v>
       </c>
       <c r="C948" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="D948" t="n">
         <v>4</v>
@@ -15866,13 +15926,13 @@
         <v>1102</v>
       </c>
       <c r="B949" t="s">
-        <v>1123</v>
+        <v>546</v>
       </c>
       <c r="C949" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="D949" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="950">
@@ -15880,10 +15940,10 @@
         <v>1102</v>
       </c>
       <c r="B950" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C950" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D950" t="n">
         <v>2</v>
@@ -15894,10 +15954,10 @@
         <v>1102</v>
       </c>
       <c r="B951" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C951" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D951" t="n">
         <v>2</v>
@@ -15908,13 +15968,13 @@
         <v>1102</v>
       </c>
       <c r="B952" t="s">
-        <v>548</v>
+        <v>1127</v>
       </c>
       <c r="C952" t="s">
-        <v>1104</v>
+        <v>1128</v>
       </c>
       <c r="D952" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -15922,7 +15982,7 @@
         <v>1102</v>
       </c>
       <c r="B953" t="s">
-        <v>950</v>
+        <v>548</v>
       </c>
       <c r="C953" t="s">
         <v>1104</v>
@@ -15936,7 +15996,7 @@
         <v>1102</v>
       </c>
       <c r="B954" t="s">
-        <v>1129</v>
+        <v>950</v>
       </c>
       <c r="C954" t="s">
         <v>1104</v>
@@ -15950,13 +16010,13 @@
         <v>1102</v>
       </c>
       <c r="B955" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C955" t="s">
-        <v>1131</v>
+        <v>1104</v>
       </c>
       <c r="D955" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="956">
@@ -15964,13 +16024,13 @@
         <v>1102</v>
       </c>
       <c r="B956" t="s">
-        <v>952</v>
+        <v>1130</v>
       </c>
       <c r="C956" t="s">
-        <v>1104</v>
+        <v>1131</v>
       </c>
       <c r="D956" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -15978,13 +16038,13 @@
         <v>1102</v>
       </c>
       <c r="B957" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C957" t="s">
         <v>1104</v>
       </c>
       <c r="D957" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="958">
@@ -15992,10 +16052,10 @@
         <v>1102</v>
       </c>
       <c r="B958" t="s">
-        <v>1132</v>
+        <v>954</v>
       </c>
       <c r="C958" t="s">
-        <v>1133</v>
+        <v>1104</v>
       </c>
       <c r="D958" t="n">
         <v>3</v>
@@ -16006,10 +16066,10 @@
         <v>1102</v>
       </c>
       <c r="B959" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C959" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D959" t="n">
         <v>3</v>
@@ -16020,10 +16080,10 @@
         <v>1102</v>
       </c>
       <c r="B960" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C960" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D960" t="n">
         <v>3</v>
@@ -16034,13 +16094,13 @@
         <v>1102</v>
       </c>
       <c r="B961" t="s">
-        <v>956</v>
+        <v>1136</v>
       </c>
       <c r="C961" t="s">
-        <v>1104</v>
+        <v>1137</v>
       </c>
       <c r="D961" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -16048,10 +16108,10 @@
         <v>1102</v>
       </c>
       <c r="B962" t="s">
-        <v>1138</v>
+        <v>956</v>
       </c>
       <c r="C962" t="s">
-        <v>1139</v>
+        <v>1104</v>
       </c>
       <c r="D962" t="n">
         <v>4</v>
@@ -16062,10 +16122,10 @@
         <v>1102</v>
       </c>
       <c r="B963" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C963" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D963" t="n">
         <v>4</v>
@@ -16076,10 +16136,10 @@
         <v>1102</v>
       </c>
       <c r="B964" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C964" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D964" t="n">
         <v>4</v>
@@ -16090,10 +16150,10 @@
         <v>1102</v>
       </c>
       <c r="B965" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C965" t="s">
-        <v>1118</v>
+        <v>1143</v>
       </c>
       <c r="D965" t="n">
         <v>4</v>
@@ -16104,10 +16164,10 @@
         <v>1102</v>
       </c>
       <c r="B966" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C966" t="s">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="D966" t="n">
         <v>4</v>
@@ -16118,7 +16178,7 @@
         <v>1102</v>
       </c>
       <c r="B967" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C967" t="s">
         <v>1104</v>
@@ -16132,7 +16192,7 @@
         <v>1102</v>
       </c>
       <c r="B968" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C968" t="s">
         <v>1104</v>
@@ -16146,7 +16206,7 @@
         <v>1102</v>
       </c>
       <c r="B969" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C969" t="s">
         <v>1104</v>
@@ -16160,10 +16220,10 @@
         <v>1102</v>
       </c>
       <c r="B970" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C970" t="s">
-        <v>1150</v>
+        <v>1104</v>
       </c>
       <c r="D970" t="n">
         <v>4</v>
@@ -16174,10 +16234,10 @@
         <v>1102</v>
       </c>
       <c r="B971" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C971" t="s">
-        <v>1104</v>
+        <v>1150</v>
       </c>
       <c r="D971" t="n">
         <v>4</v>
@@ -16188,10 +16248,10 @@
         <v>1102</v>
       </c>
       <c r="B972" t="s">
-        <v>976</v>
+        <v>1151</v>
       </c>
       <c r="C972" t="s">
-        <v>1152</v>
+        <v>1104</v>
       </c>
       <c r="D972" t="n">
         <v>4</v>
@@ -16202,10 +16262,10 @@
         <v>1102</v>
       </c>
       <c r="B973" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C973" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D973" t="n">
         <v>4</v>
@@ -16216,10 +16276,10 @@
         <v>1102</v>
       </c>
       <c r="B974" t="s">
-        <v>1154</v>
+        <v>978</v>
       </c>
       <c r="C974" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D974" t="n">
         <v>4</v>
@@ -16230,13 +16290,13 @@
         <v>1102</v>
       </c>
       <c r="B975" t="s">
-        <v>761</v>
+        <v>1154</v>
       </c>
       <c r="C975" t="s">
-        <v>1104</v>
+        <v>1155</v>
       </c>
       <c r="D975" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="976">
@@ -16244,10 +16304,10 @@
         <v>1102</v>
       </c>
       <c r="B976" t="s">
-        <v>1156</v>
+        <v>761</v>
       </c>
       <c r="C976" t="s">
-        <v>1157</v>
+        <v>1104</v>
       </c>
       <c r="D976" t="n">
         <v>6</v>
@@ -16258,10 +16318,10 @@
         <v>1102</v>
       </c>
       <c r="B977" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C977" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D977" t="n">
         <v>6</v>
@@ -16272,10 +16332,10 @@
         <v>1102</v>
       </c>
       <c r="B978" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C978" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D978" t="n">
         <v>6</v>
@@ -16286,10 +16346,10 @@
         <v>1102</v>
       </c>
       <c r="B979" t="s">
-        <v>1017</v>
+        <v>1160</v>
       </c>
       <c r="C979" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D979" t="n">
         <v>6</v>
@@ -16300,10 +16360,10 @@
         <v>1102</v>
       </c>
       <c r="B980" t="s">
-        <v>1163</v>
+        <v>1017</v>
       </c>
       <c r="C980" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D980" t="n">
         <v>6</v>
@@ -16314,10 +16374,10 @@
         <v>1102</v>
       </c>
       <c r="B981" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C981" t="s">
-        <v>1104</v>
+        <v>1164</v>
       </c>
       <c r="D981" t="n">
         <v>6</v>
@@ -16328,13 +16388,13 @@
         <v>1102</v>
       </c>
       <c r="B982" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C982" t="s">
         <v>1104</v>
       </c>
       <c r="D982" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="983">
@@ -16342,10 +16402,10 @@
         <v>1102</v>
       </c>
       <c r="B983" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C983" t="s">
-        <v>1168</v>
+        <v>1104</v>
       </c>
       <c r="D983" t="n">
         <v>7</v>
@@ -16356,13 +16416,13 @@
         <v>1102</v>
       </c>
       <c r="B984" t="s">
-        <v>958</v>
+        <v>1167</v>
       </c>
       <c r="C984" t="s">
-        <v>1104</v>
+        <v>1168</v>
       </c>
       <c r="D984" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="985">
@@ -16370,10 +16430,10 @@
         <v>1102</v>
       </c>
       <c r="B985" t="s">
-        <v>1169</v>
+        <v>958</v>
       </c>
       <c r="C985" t="s">
-        <v>1170</v>
+        <v>1104</v>
       </c>
       <c r="D985" t="n">
         <v>8</v>
@@ -16384,10 +16444,10 @@
         <v>1102</v>
       </c>
       <c r="B986" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C986" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D986" t="n">
         <v>8</v>
@@ -16398,10 +16458,10 @@
         <v>1102</v>
       </c>
       <c r="B987" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C987" t="s">
-        <v>1104</v>
+        <v>1172</v>
       </c>
       <c r="D987" t="n">
         <v>8</v>
@@ -16412,7 +16472,7 @@
         <v>1102</v>
       </c>
       <c r="B988" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C988" t="s">
         <v>1104</v>
@@ -16426,13 +16486,13 @@
         <v>1102</v>
       </c>
       <c r="B989" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C989" t="s">
-        <v>1176</v>
+        <v>1104</v>
       </c>
       <c r="D989" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="990">
@@ -16440,10 +16500,10 @@
         <v>1102</v>
       </c>
       <c r="B990" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C990" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D990" t="n">
         <v>9</v>
@@ -16454,10 +16514,10 @@
         <v>1102</v>
       </c>
       <c r="B991" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C991" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D991" t="n">
         <v>9</v>
@@ -16468,10 +16528,10 @@
         <v>1102</v>
       </c>
       <c r="B992" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C992" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D992" t="n">
         <v>9</v>
@@ -16482,10 +16542,10 @@
         <v>1102</v>
       </c>
       <c r="B993" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C993" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D993" t="n">
         <v>9</v>
@@ -16493,25 +16553,27 @@
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>1185</v>
+        <v>1102</v>
       </c>
       <c r="B994" t="s">
-        <v>5</v>
+        <v>1183</v>
       </c>
       <c r="C994" t="s">
-        <v>82</v>
-      </c>
-      <c r="D994"/>
+        <v>1184</v>
+      </c>
+      <c r="D994" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="s">
         <v>1185</v>
       </c>
       <c r="B995" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C995" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D995"/>
     </row>
@@ -16520,10 +16582,10 @@
         <v>1185</v>
       </c>
       <c r="B996" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C996" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D996"/>
     </row>
@@ -16532,10 +16594,10 @@
         <v>1185</v>
       </c>
       <c r="B997" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C997" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D997"/>
     </row>
@@ -16544,10 +16606,10 @@
         <v>1185</v>
       </c>
       <c r="B998" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C998" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D998"/>
     </row>
@@ -16556,10 +16618,10 @@
         <v>1185</v>
       </c>
       <c r="B999" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C999" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D999"/>
     </row>
@@ -16568,10 +16630,10 @@
         <v>1185</v>
       </c>
       <c r="B1000" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1000" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1000"/>
     </row>
@@ -16580,10 +16642,10 @@
         <v>1185</v>
       </c>
       <c r="B1001" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1001" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1001"/>
     </row>
@@ -16592,22 +16654,22 @@
         <v>1185</v>
       </c>
       <c r="B1002" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1002" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1002"/>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1003" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C1003" t="s">
-        <v>537</v>
+        <v>90</v>
       </c>
       <c r="D1003"/>
     </row>
@@ -16616,10 +16678,10 @@
         <v>1186</v>
       </c>
       <c r="B1004" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1004" t="s">
-        <v>1187</v>
+        <v>537</v>
       </c>
       <c r="D1004"/>
     </row>
@@ -16628,10 +16690,10 @@
         <v>1186</v>
       </c>
       <c r="B1005" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1005" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D1005"/>
     </row>
@@ -16640,10 +16702,10 @@
         <v>1186</v>
       </c>
       <c r="B1006" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1006" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D1006"/>
     </row>
@@ -16652,10 +16714,10 @@
         <v>1186</v>
       </c>
       <c r="B1007" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1007" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D1007"/>
     </row>
@@ -16664,10 +16726,10 @@
         <v>1186</v>
       </c>
       <c r="B1008" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1008" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D1008"/>
     </row>
@@ -16676,10 +16738,10 @@
         <v>1186</v>
       </c>
       <c r="B1009" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1009" t="s">
-        <v>816</v>
+        <v>1191</v>
       </c>
       <c r="D1009"/>
     </row>
@@ -16688,10 +16750,10 @@
         <v>1186</v>
       </c>
       <c r="B1010" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1010" t="s">
-        <v>1192</v>
+        <v>816</v>
       </c>
       <c r="D1010"/>
     </row>
@@ -16700,10 +16762,10 @@
         <v>1186</v>
       </c>
       <c r="B1011" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1011" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D1011"/>
     </row>
@@ -16712,10 +16774,10 @@
         <v>1186</v>
       </c>
       <c r="B1012" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1012" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D1012"/>
     </row>
@@ -16724,22 +16786,22 @@
         <v>1186</v>
       </c>
       <c r="B1013" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1013" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D1013"/>
     </row>
     <row r="1014">
       <c r="A1014" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B1014" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1014" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D1014"/>
     </row>
@@ -16748,10 +16810,10 @@
         <v>1196</v>
       </c>
       <c r="B1015" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1015" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D1015"/>
     </row>
@@ -16760,10 +16822,10 @@
         <v>1196</v>
       </c>
       <c r="B1016" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1016" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D1016"/>
     </row>
@@ -16772,10 +16834,10 @@
         <v>1196</v>
       </c>
       <c r="B1017" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1017" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D1017"/>
     </row>
@@ -16784,10 +16846,10 @@
         <v>1196</v>
       </c>
       <c r="B1018" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1018" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D1018"/>
     </row>
@@ -16796,10 +16858,10 @@
         <v>1196</v>
       </c>
       <c r="B1019" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1019" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D1019"/>
     </row>
@@ -16808,10 +16870,10 @@
         <v>1196</v>
       </c>
       <c r="B1020" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1020" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D1020"/>
     </row>
@@ -16820,10 +16882,10 @@
         <v>1196</v>
       </c>
       <c r="B1021" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1021" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D1021"/>
     </row>
@@ -16832,10 +16894,10 @@
         <v>1196</v>
       </c>
       <c r="B1022" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C1022" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D1022"/>
     </row>
@@ -16844,10 +16906,10 @@
         <v>1196</v>
       </c>
       <c r="B1023" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1023" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D1023"/>
     </row>
@@ -16856,10 +16918,10 @@
         <v>1196</v>
       </c>
       <c r="B1024" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1024" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D1024"/>
     </row>
@@ -16868,10 +16930,10 @@
         <v>1196</v>
       </c>
       <c r="B1025" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1025" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D1025"/>
     </row>
@@ -16880,10 +16942,10 @@
         <v>1196</v>
       </c>
       <c r="B1026" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1026" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D1026"/>
     </row>
@@ -16892,10 +16954,10 @@
         <v>1196</v>
       </c>
       <c r="B1027" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="C1027" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D1027"/>
     </row>
@@ -16904,10 +16966,10 @@
         <v>1196</v>
       </c>
       <c r="B1028" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1028" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D1028"/>
     </row>
@@ -16916,10 +16978,10 @@
         <v>1196</v>
       </c>
       <c r="B1029" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1029" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D1029"/>
     </row>
@@ -16928,10 +16990,10 @@
         <v>1196</v>
       </c>
       <c r="B1030" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1030" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D1030"/>
     </row>
@@ -16940,10 +17002,10 @@
         <v>1196</v>
       </c>
       <c r="B1031" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="C1031" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D1031"/>
     </row>
@@ -16952,10 +17014,10 @@
         <v>1196</v>
       </c>
       <c r="B1032" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1032" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D1032"/>
     </row>
@@ -16964,10 +17026,10 @@
         <v>1196</v>
       </c>
       <c r="B1033" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1033" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D1033"/>
     </row>
@@ -16976,10 +17038,10 @@
         <v>1196</v>
       </c>
       <c r="B1034" t="s">
-        <v>664</v>
+        <v>113</v>
       </c>
       <c r="C1034" t="s">
-        <v>1071</v>
+        <v>1216</v>
       </c>
       <c r="D1034"/>
     </row>
@@ -16988,39 +17050,37 @@
         <v>1196</v>
       </c>
       <c r="B1035" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="C1035" t="s">
-        <v>67</v>
+        <v>1071</v>
       </c>
       <c r="D1035"/>
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="B1036" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C1036" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D1036"/>
     </row>
     <row r="1037">
       <c r="A1037" t="s">
         <v>1217</v>
       </c>
       <c r="B1037" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1037" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -17028,13 +17088,13 @@
         <v>1217</v>
       </c>
       <c r="B1038" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1038" t="s">
-        <v>220</v>
+        <v>1219</v>
       </c>
       <c r="D1038" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -17042,13 +17102,13 @@
         <v>1217</v>
       </c>
       <c r="B1039" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1039" t="s">
-        <v>1220</v>
+        <v>220</v>
       </c>
       <c r="D1039" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1040">
@@ -17056,13 +17116,13 @@
         <v>1217</v>
       </c>
       <c r="B1040" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1040" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D1040" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1041">
@@ -17070,13 +17130,13 @@
         <v>1217</v>
       </c>
       <c r="B1041" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1041" t="s">
-        <v>532</v>
+        <v>1221</v>
       </c>
       <c r="D1041" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1042">
@@ -17084,13 +17144,13 @@
         <v>1217</v>
       </c>
       <c r="B1042" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1042" t="s">
-        <v>1222</v>
+        <v>532</v>
       </c>
       <c r="D1042" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1043">
@@ -17098,13 +17158,167 @@
         <v>1217</v>
       </c>
       <c r="B1043" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1043" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D1043" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
